--- a/Provincial-data/ND par provinces.xlsx
+++ b/Provincial-data/ND par provinces.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Covid forcast\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Covidforcast\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -617,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BX358"/>
+  <dimension ref="A1:BX393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="A355" sqref="A355:BX358"/>
+    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="S370" sqref="S370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -82965,6 +82965,8056 @@
         <v>0</v>
       </c>
     </row>
+    <row r="359" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A359" s="2">
+        <v>44434</v>
+      </c>
+      <c r="B359">
+        <v>11</v>
+      </c>
+      <c r="C359">
+        <v>2</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <v>1</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+      <c r="H359">
+        <v>0</v>
+      </c>
+      <c r="I359">
+        <v>1</v>
+      </c>
+      <c r="J359">
+        <v>1</v>
+      </c>
+      <c r="K359">
+        <v>1</v>
+      </c>
+      <c r="L359">
+        <v>2</v>
+      </c>
+      <c r="M359">
+        <v>10</v>
+      </c>
+      <c r="N359">
+        <v>0</v>
+      </c>
+      <c r="O359">
+        <v>2</v>
+      </c>
+      <c r="P359">
+        <v>0</v>
+      </c>
+      <c r="Q359">
+        <v>1</v>
+      </c>
+      <c r="R359">
+        <v>0</v>
+      </c>
+      <c r="S359">
+        <v>2</v>
+      </c>
+      <c r="T359">
+        <v>3</v>
+      </c>
+      <c r="U359">
+        <v>0</v>
+      </c>
+      <c r="V359">
+        <v>0</v>
+      </c>
+      <c r="W359">
+        <v>1</v>
+      </c>
+      <c r="X359">
+        <v>4</v>
+      </c>
+      <c r="Y359">
+        <v>1</v>
+      </c>
+      <c r="Z359">
+        <v>4</v>
+      </c>
+      <c r="AA359">
+        <v>0</v>
+      </c>
+      <c r="AB359">
+        <v>3</v>
+      </c>
+      <c r="AC359">
+        <v>2</v>
+      </c>
+      <c r="AD359">
+        <v>1</v>
+      </c>
+      <c r="AE359">
+        <v>0</v>
+      </c>
+      <c r="AF359">
+        <v>7</v>
+      </c>
+      <c r="AG359">
+        <v>1</v>
+      </c>
+      <c r="AH359">
+        <v>2</v>
+      </c>
+      <c r="AI359">
+        <v>0</v>
+      </c>
+      <c r="AJ359">
+        <v>1</v>
+      </c>
+      <c r="AK359">
+        <v>3</v>
+      </c>
+      <c r="AL359">
+        <v>0</v>
+      </c>
+      <c r="AM359">
+        <v>0</v>
+      </c>
+      <c r="AN359">
+        <v>1</v>
+      </c>
+      <c r="AO359">
+        <v>4</v>
+      </c>
+      <c r="AP359">
+        <v>0</v>
+      </c>
+      <c r="AQ359">
+        <v>2</v>
+      </c>
+      <c r="AR359">
+        <v>0</v>
+      </c>
+      <c r="AS359">
+        <v>0</v>
+      </c>
+      <c r="AT359">
+        <v>0</v>
+      </c>
+      <c r="AU359">
+        <v>1</v>
+      </c>
+      <c r="AV359">
+        <v>5</v>
+      </c>
+      <c r="AW359">
+        <v>0</v>
+      </c>
+      <c r="AX359">
+        <v>0</v>
+      </c>
+      <c r="AY359">
+        <v>0</v>
+      </c>
+      <c r="AZ359">
+        <v>0</v>
+      </c>
+      <c r="BA359">
+        <v>1</v>
+      </c>
+      <c r="BB359">
+        <v>2</v>
+      </c>
+      <c r="BC359">
+        <v>1</v>
+      </c>
+      <c r="BD359">
+        <v>0</v>
+      </c>
+      <c r="BE359">
+        <v>1</v>
+      </c>
+      <c r="BF359">
+        <v>2</v>
+      </c>
+      <c r="BG359">
+        <v>0</v>
+      </c>
+      <c r="BH359">
+        <v>0</v>
+      </c>
+      <c r="BI359">
+        <v>0</v>
+      </c>
+      <c r="BJ359">
+        <v>1</v>
+      </c>
+      <c r="BK359">
+        <v>0</v>
+      </c>
+      <c r="BL359">
+        <v>0</v>
+      </c>
+      <c r="BM359">
+        <v>0</v>
+      </c>
+      <c r="BN359">
+        <v>0</v>
+      </c>
+      <c r="BO359">
+        <v>4</v>
+      </c>
+      <c r="BP359">
+        <v>0</v>
+      </c>
+      <c r="BQ359">
+        <v>0</v>
+      </c>
+      <c r="BR359">
+        <v>1</v>
+      </c>
+      <c r="BS359">
+        <v>1</v>
+      </c>
+      <c r="BT359">
+        <v>1</v>
+      </c>
+      <c r="BU359">
+        <v>1</v>
+      </c>
+      <c r="BV359">
+        <v>0</v>
+      </c>
+      <c r="BW359">
+        <v>1</v>
+      </c>
+      <c r="BX359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A360" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B360">
+        <v>8</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>1</v>
+      </c>
+      <c r="F360">
+        <v>1</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+      <c r="H360">
+        <v>2</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>1</v>
+      </c>
+      <c r="L360">
+        <v>2</v>
+      </c>
+      <c r="M360">
+        <v>2</v>
+      </c>
+      <c r="N360">
+        <v>1</v>
+      </c>
+      <c r="O360">
+        <v>1</v>
+      </c>
+      <c r="P360">
+        <v>2</v>
+      </c>
+      <c r="Q360">
+        <v>0</v>
+      </c>
+      <c r="R360">
+        <v>0</v>
+      </c>
+      <c r="S360">
+        <v>2</v>
+      </c>
+      <c r="T360">
+        <v>0</v>
+      </c>
+      <c r="U360">
+        <v>3</v>
+      </c>
+      <c r="V360">
+        <v>0</v>
+      </c>
+      <c r="W360">
+        <v>0</v>
+      </c>
+      <c r="X360">
+        <v>8</v>
+      </c>
+      <c r="Y360">
+        <v>1</v>
+      </c>
+      <c r="Z360">
+        <v>4</v>
+      </c>
+      <c r="AA360">
+        <v>0</v>
+      </c>
+      <c r="AB360">
+        <v>4</v>
+      </c>
+      <c r="AC360">
+        <v>2</v>
+      </c>
+      <c r="AD360">
+        <v>0</v>
+      </c>
+      <c r="AE360">
+        <v>0</v>
+      </c>
+      <c r="AF360">
+        <v>10</v>
+      </c>
+      <c r="AG360">
+        <v>1</v>
+      </c>
+      <c r="AH360">
+        <v>0</v>
+      </c>
+      <c r="AI360">
+        <v>3</v>
+      </c>
+      <c r="AJ360">
+        <v>0</v>
+      </c>
+      <c r="AK360">
+        <v>0</v>
+      </c>
+      <c r="AL360">
+        <v>0</v>
+      </c>
+      <c r="AM360">
+        <v>0</v>
+      </c>
+      <c r="AN360">
+        <v>1</v>
+      </c>
+      <c r="AO360">
+        <v>2</v>
+      </c>
+      <c r="AP360">
+        <v>1</v>
+      </c>
+      <c r="AQ360">
+        <v>1</v>
+      </c>
+      <c r="AR360">
+        <v>0</v>
+      </c>
+      <c r="AS360">
+        <v>0</v>
+      </c>
+      <c r="AT360">
+        <v>0</v>
+      </c>
+      <c r="AU360">
+        <v>2</v>
+      </c>
+      <c r="AV360">
+        <v>0</v>
+      </c>
+      <c r="AW360">
+        <v>1</v>
+      </c>
+      <c r="AX360">
+        <v>0</v>
+      </c>
+      <c r="AY360">
+        <v>1</v>
+      </c>
+      <c r="AZ360">
+        <v>0</v>
+      </c>
+      <c r="BA360">
+        <v>3</v>
+      </c>
+      <c r="BB360">
+        <v>4</v>
+      </c>
+      <c r="BC360">
+        <v>1</v>
+      </c>
+      <c r="BD360">
+        <v>0</v>
+      </c>
+      <c r="BE360">
+        <v>2</v>
+      </c>
+      <c r="BF360">
+        <v>2</v>
+      </c>
+      <c r="BG360">
+        <v>0</v>
+      </c>
+      <c r="BH360">
+        <v>0</v>
+      </c>
+      <c r="BI360">
+        <v>1</v>
+      </c>
+      <c r="BJ360">
+        <v>1</v>
+      </c>
+      <c r="BK360">
+        <v>1</v>
+      </c>
+      <c r="BL360">
+        <v>0</v>
+      </c>
+      <c r="BM360">
+        <v>1</v>
+      </c>
+      <c r="BN360">
+        <v>0</v>
+      </c>
+      <c r="BO360">
+        <v>3</v>
+      </c>
+      <c r="BP360">
+        <v>0</v>
+      </c>
+      <c r="BQ360">
+        <v>0</v>
+      </c>
+      <c r="BR360">
+        <v>0</v>
+      </c>
+      <c r="BS360">
+        <v>3</v>
+      </c>
+      <c r="BT360">
+        <v>0</v>
+      </c>
+      <c r="BU360">
+        <v>1</v>
+      </c>
+      <c r="BV360">
+        <v>0</v>
+      </c>
+      <c r="BW360">
+        <v>1</v>
+      </c>
+      <c r="BX360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A361" s="2">
+        <v>44436</v>
+      </c>
+      <c r="B361">
+        <v>13</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>2</v>
+      </c>
+      <c r="F361">
+        <v>1</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+      <c r="H361">
+        <v>1</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>1</v>
+      </c>
+      <c r="L361">
+        <v>3</v>
+      </c>
+      <c r="M361">
+        <v>3</v>
+      </c>
+      <c r="N361">
+        <v>0</v>
+      </c>
+      <c r="O361">
+        <v>2</v>
+      </c>
+      <c r="P361">
+        <v>1</v>
+      </c>
+      <c r="Q361">
+        <v>1</v>
+      </c>
+      <c r="R361">
+        <v>0</v>
+      </c>
+      <c r="S361">
+        <v>0</v>
+      </c>
+      <c r="T361">
+        <v>0</v>
+      </c>
+      <c r="U361">
+        <v>2</v>
+      </c>
+      <c r="V361">
+        <v>0</v>
+      </c>
+      <c r="W361">
+        <v>5</v>
+      </c>
+      <c r="X361">
+        <v>5</v>
+      </c>
+      <c r="Y361">
+        <v>0</v>
+      </c>
+      <c r="Z361">
+        <v>3</v>
+      </c>
+      <c r="AA361">
+        <v>3</v>
+      </c>
+      <c r="AB361">
+        <v>2</v>
+      </c>
+      <c r="AC361">
+        <v>1</v>
+      </c>
+      <c r="AD361">
+        <v>0</v>
+      </c>
+      <c r="AE361">
+        <v>0</v>
+      </c>
+      <c r="AF361">
+        <v>5</v>
+      </c>
+      <c r="AG361">
+        <v>1</v>
+      </c>
+      <c r="AH361">
+        <v>0</v>
+      </c>
+      <c r="AI361">
+        <v>0</v>
+      </c>
+      <c r="AJ361">
+        <v>0</v>
+      </c>
+      <c r="AK361">
+        <v>1</v>
+      </c>
+      <c r="AL361">
+        <v>0</v>
+      </c>
+      <c r="AM361">
+        <v>0</v>
+      </c>
+      <c r="AN361">
+        <v>0</v>
+      </c>
+      <c r="AO361">
+        <v>2</v>
+      </c>
+      <c r="AP361">
+        <v>0</v>
+      </c>
+      <c r="AQ361">
+        <v>6</v>
+      </c>
+      <c r="AR361">
+        <v>2</v>
+      </c>
+      <c r="AS361">
+        <v>0</v>
+      </c>
+      <c r="AT361">
+        <v>0</v>
+      </c>
+      <c r="AU361">
+        <v>0</v>
+      </c>
+      <c r="AV361">
+        <v>2</v>
+      </c>
+      <c r="AW361">
+        <v>0</v>
+      </c>
+      <c r="AX361">
+        <v>1</v>
+      </c>
+      <c r="AY361">
+        <v>2</v>
+      </c>
+      <c r="AZ361">
+        <v>1</v>
+      </c>
+      <c r="BA361">
+        <v>1</v>
+      </c>
+      <c r="BB361">
+        <v>6</v>
+      </c>
+      <c r="BC361">
+        <v>0</v>
+      </c>
+      <c r="BD361">
+        <v>0</v>
+      </c>
+      <c r="BE361">
+        <v>2</v>
+      </c>
+      <c r="BF361">
+        <v>2</v>
+      </c>
+      <c r="BG361">
+        <v>1</v>
+      </c>
+      <c r="BH361">
+        <v>0</v>
+      </c>
+      <c r="BI361">
+        <v>1</v>
+      </c>
+      <c r="BJ361">
+        <v>1</v>
+      </c>
+      <c r="BK361">
+        <v>1</v>
+      </c>
+      <c r="BL361">
+        <v>1</v>
+      </c>
+      <c r="BM361">
+        <v>0</v>
+      </c>
+      <c r="BN361">
+        <v>0</v>
+      </c>
+      <c r="BO361">
+        <v>0</v>
+      </c>
+      <c r="BP361">
+        <v>1</v>
+      </c>
+      <c r="BQ361">
+        <v>0</v>
+      </c>
+      <c r="BR361">
+        <v>0</v>
+      </c>
+      <c r="BS361">
+        <v>3</v>
+      </c>
+      <c r="BT361">
+        <v>1</v>
+      </c>
+      <c r="BU361">
+        <v>0</v>
+      </c>
+      <c r="BV361">
+        <v>0</v>
+      </c>
+      <c r="BW361">
+        <v>0</v>
+      </c>
+      <c r="BX361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A362" s="2">
+        <v>44437</v>
+      </c>
+      <c r="B362">
+        <v>10</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362">
+        <v>2</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+      <c r="H362">
+        <v>0</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>1</v>
+      </c>
+      <c r="L362">
+        <v>0</v>
+      </c>
+      <c r="M362">
+        <v>9</v>
+      </c>
+      <c r="N362">
+        <v>1</v>
+      </c>
+      <c r="O362">
+        <v>0</v>
+      </c>
+      <c r="P362">
+        <v>0</v>
+      </c>
+      <c r="Q362">
+        <v>0</v>
+      </c>
+      <c r="R362">
+        <v>0</v>
+      </c>
+      <c r="S362">
+        <v>0</v>
+      </c>
+      <c r="T362">
+        <v>1</v>
+      </c>
+      <c r="U362">
+        <v>0</v>
+      </c>
+      <c r="V362">
+        <v>0</v>
+      </c>
+      <c r="W362">
+        <v>4</v>
+      </c>
+      <c r="X362">
+        <v>5</v>
+      </c>
+      <c r="Y362">
+        <v>1</v>
+      </c>
+      <c r="Z362">
+        <v>3</v>
+      </c>
+      <c r="AA362">
+        <v>0</v>
+      </c>
+      <c r="AB362">
+        <v>1</v>
+      </c>
+      <c r="AC362">
+        <v>1</v>
+      </c>
+      <c r="AD362">
+        <v>1</v>
+      </c>
+      <c r="AE362">
+        <v>0</v>
+      </c>
+      <c r="AF362">
+        <v>2</v>
+      </c>
+      <c r="AG362">
+        <v>0</v>
+      </c>
+      <c r="AH362">
+        <v>0</v>
+      </c>
+      <c r="AI362">
+        <v>0</v>
+      </c>
+      <c r="AJ362">
+        <v>0</v>
+      </c>
+      <c r="AK362">
+        <v>0</v>
+      </c>
+      <c r="AL362">
+        <v>0</v>
+      </c>
+      <c r="AM362">
+        <v>0</v>
+      </c>
+      <c r="AN362">
+        <v>0</v>
+      </c>
+      <c r="AO362">
+        <v>5</v>
+      </c>
+      <c r="AP362">
+        <v>0</v>
+      </c>
+      <c r="AQ362">
+        <v>1</v>
+      </c>
+      <c r="AR362">
+        <v>2</v>
+      </c>
+      <c r="AS362">
+        <v>3</v>
+      </c>
+      <c r="AT362">
+        <v>0</v>
+      </c>
+      <c r="AU362">
+        <v>2</v>
+      </c>
+      <c r="AV362">
+        <v>0</v>
+      </c>
+      <c r="AW362">
+        <v>0</v>
+      </c>
+      <c r="AX362">
+        <v>0</v>
+      </c>
+      <c r="AY362">
+        <v>2</v>
+      </c>
+      <c r="AZ362">
+        <v>0</v>
+      </c>
+      <c r="BA362">
+        <v>2</v>
+      </c>
+      <c r="BB362">
+        <v>6</v>
+      </c>
+      <c r="BC362">
+        <v>3</v>
+      </c>
+      <c r="BD362">
+        <v>0</v>
+      </c>
+      <c r="BE362">
+        <v>0</v>
+      </c>
+      <c r="BF362">
+        <v>1</v>
+      </c>
+      <c r="BG362">
+        <v>1</v>
+      </c>
+      <c r="BH362">
+        <v>0</v>
+      </c>
+      <c r="BI362">
+        <v>1</v>
+      </c>
+      <c r="BJ362">
+        <v>0</v>
+      </c>
+      <c r="BK362">
+        <v>1</v>
+      </c>
+      <c r="BL362">
+        <v>1</v>
+      </c>
+      <c r="BM362">
+        <v>0</v>
+      </c>
+      <c r="BN362">
+        <v>0</v>
+      </c>
+      <c r="BO362">
+        <v>0</v>
+      </c>
+      <c r="BP362">
+        <v>1</v>
+      </c>
+      <c r="BQ362">
+        <v>0</v>
+      </c>
+      <c r="BR362">
+        <v>0</v>
+      </c>
+      <c r="BS362">
+        <v>1</v>
+      </c>
+      <c r="BT362">
+        <v>1</v>
+      </c>
+      <c r="BU362">
+        <v>0</v>
+      </c>
+      <c r="BV362">
+        <v>0</v>
+      </c>
+      <c r="BW362">
+        <v>0</v>
+      </c>
+      <c r="BX362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A363" s="2">
+        <v>44438</v>
+      </c>
+      <c r="B363">
+        <v>14</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363">
+        <v>3</v>
+      </c>
+      <c r="F363">
+        <v>2</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+      <c r="H363">
+        <v>0</v>
+      </c>
+      <c r="I363">
+        <v>1</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>1</v>
+      </c>
+      <c r="L363">
+        <v>1</v>
+      </c>
+      <c r="M363">
+        <v>3</v>
+      </c>
+      <c r="N363">
+        <v>1</v>
+      </c>
+      <c r="O363">
+        <v>1</v>
+      </c>
+      <c r="P363">
+        <v>2</v>
+      </c>
+      <c r="Q363">
+        <v>0</v>
+      </c>
+      <c r="R363">
+        <v>0</v>
+      </c>
+      <c r="S363">
+        <v>3</v>
+      </c>
+      <c r="T363">
+        <v>0</v>
+      </c>
+      <c r="U363">
+        <v>2</v>
+      </c>
+      <c r="V363">
+        <v>4</v>
+      </c>
+      <c r="W363">
+        <v>0</v>
+      </c>
+      <c r="X363">
+        <v>4</v>
+      </c>
+      <c r="Y363">
+        <v>1</v>
+      </c>
+      <c r="Z363">
+        <v>2</v>
+      </c>
+      <c r="AA363">
+        <v>1</v>
+      </c>
+      <c r="AB363">
+        <v>2</v>
+      </c>
+      <c r="AC363">
+        <v>3</v>
+      </c>
+      <c r="AD363">
+        <v>1</v>
+      </c>
+      <c r="AE363">
+        <v>0</v>
+      </c>
+      <c r="AF363">
+        <v>12</v>
+      </c>
+      <c r="AG363">
+        <v>0</v>
+      </c>
+      <c r="AH363">
+        <v>0</v>
+      </c>
+      <c r="AI363">
+        <v>3</v>
+      </c>
+      <c r="AJ363">
+        <v>1</v>
+      </c>
+      <c r="AK363">
+        <v>0</v>
+      </c>
+      <c r="AL363">
+        <v>0</v>
+      </c>
+      <c r="AM363">
+        <v>1</v>
+      </c>
+      <c r="AN363">
+        <v>1</v>
+      </c>
+      <c r="AO363">
+        <v>1</v>
+      </c>
+      <c r="AP363">
+        <v>0</v>
+      </c>
+      <c r="AQ363">
+        <v>3</v>
+      </c>
+      <c r="AR363">
+        <v>2</v>
+      </c>
+      <c r="AS363">
+        <v>0</v>
+      </c>
+      <c r="AT363">
+        <v>0</v>
+      </c>
+      <c r="AU363">
+        <v>1</v>
+      </c>
+      <c r="AV363">
+        <v>2</v>
+      </c>
+      <c r="AW363">
+        <v>0</v>
+      </c>
+      <c r="AX363">
+        <v>1</v>
+      </c>
+      <c r="AY363">
+        <v>3</v>
+      </c>
+      <c r="AZ363">
+        <v>1</v>
+      </c>
+      <c r="BA363">
+        <v>0</v>
+      </c>
+      <c r="BB363">
+        <v>6</v>
+      </c>
+      <c r="BC363">
+        <v>0</v>
+      </c>
+      <c r="BD363">
+        <v>0</v>
+      </c>
+      <c r="BE363">
+        <v>1</v>
+      </c>
+      <c r="BF363">
+        <v>1</v>
+      </c>
+      <c r="BG363">
+        <v>1</v>
+      </c>
+      <c r="BH363">
+        <v>0</v>
+      </c>
+      <c r="BI363">
+        <v>1</v>
+      </c>
+      <c r="BJ363">
+        <v>1</v>
+      </c>
+      <c r="BK363">
+        <v>2</v>
+      </c>
+      <c r="BL363">
+        <v>1</v>
+      </c>
+      <c r="BM363">
+        <v>0</v>
+      </c>
+      <c r="BN363">
+        <v>0</v>
+      </c>
+      <c r="BO363">
+        <v>2</v>
+      </c>
+      <c r="BP363">
+        <v>0</v>
+      </c>
+      <c r="BQ363">
+        <v>0</v>
+      </c>
+      <c r="BR363">
+        <v>0</v>
+      </c>
+      <c r="BS363">
+        <v>1</v>
+      </c>
+      <c r="BT363">
+        <v>2</v>
+      </c>
+      <c r="BU363">
+        <v>0</v>
+      </c>
+      <c r="BV363">
+        <v>0</v>
+      </c>
+      <c r="BW363">
+        <v>0</v>
+      </c>
+      <c r="BX363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A364" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B364">
+        <v>20</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>4</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+      <c r="H364">
+        <v>1</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>2</v>
+      </c>
+      <c r="L364">
+        <v>1</v>
+      </c>
+      <c r="M364">
+        <v>5</v>
+      </c>
+      <c r="N364">
+        <v>2</v>
+      </c>
+      <c r="O364">
+        <v>1</v>
+      </c>
+      <c r="P364">
+        <v>1</v>
+      </c>
+      <c r="Q364">
+        <v>0</v>
+      </c>
+      <c r="R364">
+        <v>0</v>
+      </c>
+      <c r="S364">
+        <v>4</v>
+      </c>
+      <c r="T364">
+        <v>1</v>
+      </c>
+      <c r="U364">
+        <v>2</v>
+      </c>
+      <c r="V364">
+        <v>1</v>
+      </c>
+      <c r="W364">
+        <v>4</v>
+      </c>
+      <c r="X364">
+        <v>8</v>
+      </c>
+      <c r="Y364">
+        <v>1</v>
+      </c>
+      <c r="Z364">
+        <v>3</v>
+      </c>
+      <c r="AA364">
+        <v>1</v>
+      </c>
+      <c r="AB364">
+        <v>0</v>
+      </c>
+      <c r="AC364">
+        <v>2</v>
+      </c>
+      <c r="AD364">
+        <v>0</v>
+      </c>
+      <c r="AE364">
+        <v>0</v>
+      </c>
+      <c r="AF364">
+        <v>6</v>
+      </c>
+      <c r="AG364">
+        <v>1</v>
+      </c>
+      <c r="AH364">
+        <v>0</v>
+      </c>
+      <c r="AI364">
+        <v>4</v>
+      </c>
+      <c r="AJ364">
+        <v>0</v>
+      </c>
+      <c r="AK364">
+        <v>2</v>
+      </c>
+      <c r="AL364">
+        <v>2</v>
+      </c>
+      <c r="AM364">
+        <v>0</v>
+      </c>
+      <c r="AN364">
+        <v>2</v>
+      </c>
+      <c r="AO364">
+        <v>0</v>
+      </c>
+      <c r="AP364">
+        <v>0</v>
+      </c>
+      <c r="AQ364">
+        <v>0</v>
+      </c>
+      <c r="AR364">
+        <v>1</v>
+      </c>
+      <c r="AS364">
+        <v>3</v>
+      </c>
+      <c r="AT364">
+        <v>0</v>
+      </c>
+      <c r="AU364">
+        <v>0</v>
+      </c>
+      <c r="AV364">
+        <v>2</v>
+      </c>
+      <c r="AW364">
+        <v>1</v>
+      </c>
+      <c r="AX364">
+        <v>0</v>
+      </c>
+      <c r="AY364">
+        <v>1</v>
+      </c>
+      <c r="AZ364">
+        <v>0</v>
+      </c>
+      <c r="BA364">
+        <v>0</v>
+      </c>
+      <c r="BB364">
+        <v>3</v>
+      </c>
+      <c r="BC364">
+        <v>1</v>
+      </c>
+      <c r="BD364">
+        <v>3</v>
+      </c>
+      <c r="BE364">
+        <v>0</v>
+      </c>
+      <c r="BF364">
+        <v>1</v>
+      </c>
+      <c r="BG364">
+        <v>2</v>
+      </c>
+      <c r="BH364">
+        <v>1</v>
+      </c>
+      <c r="BI364">
+        <v>2</v>
+      </c>
+      <c r="BJ364">
+        <v>1</v>
+      </c>
+      <c r="BK364">
+        <v>0</v>
+      </c>
+      <c r="BL364">
+        <v>0</v>
+      </c>
+      <c r="BM364">
+        <v>0</v>
+      </c>
+      <c r="BN364">
+        <v>0</v>
+      </c>
+      <c r="BO364">
+        <v>2</v>
+      </c>
+      <c r="BP364">
+        <v>1</v>
+      </c>
+      <c r="BQ364">
+        <v>1</v>
+      </c>
+      <c r="BR364">
+        <v>0</v>
+      </c>
+      <c r="BS364">
+        <v>1</v>
+      </c>
+      <c r="BT364">
+        <v>0</v>
+      </c>
+      <c r="BU364">
+        <v>1</v>
+      </c>
+      <c r="BV364">
+        <v>0</v>
+      </c>
+      <c r="BW364">
+        <v>0</v>
+      </c>
+      <c r="BX364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A365" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B365">
+        <v>19</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+      <c r="H365">
+        <v>0</v>
+      </c>
+      <c r="I365">
+        <v>2</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>1</v>
+      </c>
+      <c r="L365">
+        <v>3</v>
+      </c>
+      <c r="M365">
+        <v>3</v>
+      </c>
+      <c r="N365">
+        <v>0</v>
+      </c>
+      <c r="O365">
+        <v>2</v>
+      </c>
+      <c r="P365">
+        <v>2</v>
+      </c>
+      <c r="Q365">
+        <v>1</v>
+      </c>
+      <c r="R365">
+        <v>0</v>
+      </c>
+      <c r="S365">
+        <v>2</v>
+      </c>
+      <c r="T365">
+        <v>1</v>
+      </c>
+      <c r="U365">
+        <v>4</v>
+      </c>
+      <c r="V365">
+        <v>0</v>
+      </c>
+      <c r="W365">
+        <v>6</v>
+      </c>
+      <c r="X365">
+        <v>6</v>
+      </c>
+      <c r="Y365">
+        <v>0</v>
+      </c>
+      <c r="Z365">
+        <v>3</v>
+      </c>
+      <c r="AA365">
+        <v>0</v>
+      </c>
+      <c r="AB365">
+        <v>3</v>
+      </c>
+      <c r="AC365">
+        <v>2</v>
+      </c>
+      <c r="AD365">
+        <v>0</v>
+      </c>
+      <c r="AE365">
+        <v>1</v>
+      </c>
+      <c r="AF365">
+        <v>2</v>
+      </c>
+      <c r="AG365">
+        <v>1</v>
+      </c>
+      <c r="AH365">
+        <v>1</v>
+      </c>
+      <c r="AI365">
+        <v>0</v>
+      </c>
+      <c r="AJ365">
+        <v>1</v>
+      </c>
+      <c r="AK365">
+        <v>2</v>
+      </c>
+      <c r="AL365">
+        <v>0</v>
+      </c>
+      <c r="AM365">
+        <v>0</v>
+      </c>
+      <c r="AN365">
+        <v>1</v>
+      </c>
+      <c r="AO365">
+        <v>0</v>
+      </c>
+      <c r="AP365">
+        <v>0</v>
+      </c>
+      <c r="AQ365">
+        <v>2</v>
+      </c>
+      <c r="AR365">
+        <v>0</v>
+      </c>
+      <c r="AS365">
+        <v>0</v>
+      </c>
+      <c r="AT365">
+        <v>4</v>
+      </c>
+      <c r="AU365">
+        <v>0</v>
+      </c>
+      <c r="AV365">
+        <v>3</v>
+      </c>
+      <c r="AW365">
+        <v>1</v>
+      </c>
+      <c r="AX365">
+        <v>0</v>
+      </c>
+      <c r="AY365">
+        <v>1</v>
+      </c>
+      <c r="AZ365">
+        <v>0</v>
+      </c>
+      <c r="BA365">
+        <v>0</v>
+      </c>
+      <c r="BB365">
+        <v>4</v>
+      </c>
+      <c r="BC365">
+        <v>3</v>
+      </c>
+      <c r="BD365">
+        <v>1</v>
+      </c>
+      <c r="BE365">
+        <v>3</v>
+      </c>
+      <c r="BF365">
+        <v>2</v>
+      </c>
+      <c r="BG365">
+        <v>3</v>
+      </c>
+      <c r="BH365">
+        <v>0</v>
+      </c>
+      <c r="BI365">
+        <v>0</v>
+      </c>
+      <c r="BJ365">
+        <v>0</v>
+      </c>
+      <c r="BK365">
+        <v>1</v>
+      </c>
+      <c r="BL365">
+        <v>1</v>
+      </c>
+      <c r="BM365">
+        <v>0</v>
+      </c>
+      <c r="BN365">
+        <v>0</v>
+      </c>
+      <c r="BO365">
+        <v>0</v>
+      </c>
+      <c r="BP365">
+        <v>0</v>
+      </c>
+      <c r="BQ365">
+        <v>0</v>
+      </c>
+      <c r="BR365">
+        <v>0</v>
+      </c>
+      <c r="BS365">
+        <v>2</v>
+      </c>
+      <c r="BT365">
+        <v>0</v>
+      </c>
+      <c r="BU365">
+        <v>0</v>
+      </c>
+      <c r="BV365">
+        <v>0</v>
+      </c>
+      <c r="BW365">
+        <v>0</v>
+      </c>
+      <c r="BX365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A366" s="2">
+        <v>44441</v>
+      </c>
+      <c r="B366">
+        <v>15</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>0</v>
+      </c>
+      <c r="F366">
+        <v>1</v>
+      </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
+      <c r="H366">
+        <v>1</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>2</v>
+      </c>
+      <c r="L366">
+        <v>1</v>
+      </c>
+      <c r="M366">
+        <v>6</v>
+      </c>
+      <c r="N366">
+        <v>0</v>
+      </c>
+      <c r="O366">
+        <v>2</v>
+      </c>
+      <c r="P366">
+        <v>2</v>
+      </c>
+      <c r="Q366">
+        <v>0</v>
+      </c>
+      <c r="R366">
+        <v>0</v>
+      </c>
+      <c r="S366">
+        <v>0</v>
+      </c>
+      <c r="T366">
+        <v>0</v>
+      </c>
+      <c r="U366">
+        <v>0</v>
+      </c>
+      <c r="V366">
+        <v>1</v>
+      </c>
+      <c r="W366">
+        <v>0</v>
+      </c>
+      <c r="X366">
+        <v>3</v>
+      </c>
+      <c r="Y366">
+        <v>0</v>
+      </c>
+      <c r="Z366">
+        <v>1</v>
+      </c>
+      <c r="AA366">
+        <v>1</v>
+      </c>
+      <c r="AB366">
+        <v>3</v>
+      </c>
+      <c r="AC366">
+        <v>1</v>
+      </c>
+      <c r="AD366">
+        <v>0</v>
+      </c>
+      <c r="AE366">
+        <v>0</v>
+      </c>
+      <c r="AF366">
+        <v>3</v>
+      </c>
+      <c r="AG366">
+        <v>1</v>
+      </c>
+      <c r="AH366">
+        <v>1</v>
+      </c>
+      <c r="AI366">
+        <v>0</v>
+      </c>
+      <c r="AJ366">
+        <v>0</v>
+      </c>
+      <c r="AK366">
+        <v>0</v>
+      </c>
+      <c r="AL366">
+        <v>0</v>
+      </c>
+      <c r="AM366">
+        <v>0</v>
+      </c>
+      <c r="AN366">
+        <v>3</v>
+      </c>
+      <c r="AO366">
+        <v>2</v>
+      </c>
+      <c r="AP366">
+        <v>0</v>
+      </c>
+      <c r="AQ366">
+        <v>1</v>
+      </c>
+      <c r="AR366">
+        <v>0</v>
+      </c>
+      <c r="AS366">
+        <v>0</v>
+      </c>
+      <c r="AT366">
+        <v>1</v>
+      </c>
+      <c r="AU366">
+        <v>0</v>
+      </c>
+      <c r="AV366">
+        <v>1</v>
+      </c>
+      <c r="AW366">
+        <v>2</v>
+      </c>
+      <c r="AX366">
+        <v>0</v>
+      </c>
+      <c r="AY366">
+        <v>0</v>
+      </c>
+      <c r="AZ366">
+        <v>0</v>
+      </c>
+      <c r="BA366">
+        <v>0</v>
+      </c>
+      <c r="BB366">
+        <v>3</v>
+      </c>
+      <c r="BC366">
+        <v>1</v>
+      </c>
+      <c r="BD366">
+        <v>0</v>
+      </c>
+      <c r="BE366">
+        <v>1</v>
+      </c>
+      <c r="BF366">
+        <v>2</v>
+      </c>
+      <c r="BG366">
+        <v>3</v>
+      </c>
+      <c r="BH366">
+        <v>0</v>
+      </c>
+      <c r="BI366">
+        <v>1</v>
+      </c>
+      <c r="BJ366">
+        <v>1</v>
+      </c>
+      <c r="BK366">
+        <v>0</v>
+      </c>
+      <c r="BL366">
+        <v>0</v>
+      </c>
+      <c r="BM366">
+        <v>0</v>
+      </c>
+      <c r="BN366">
+        <v>0</v>
+      </c>
+      <c r="BO366">
+        <v>1</v>
+      </c>
+      <c r="BP366">
+        <v>0</v>
+      </c>
+      <c r="BQ366">
+        <v>0</v>
+      </c>
+      <c r="BR366">
+        <v>0</v>
+      </c>
+      <c r="BS366">
+        <v>2</v>
+      </c>
+      <c r="BT366">
+        <v>0</v>
+      </c>
+      <c r="BU366">
+        <v>0</v>
+      </c>
+      <c r="BV366">
+        <v>0</v>
+      </c>
+      <c r="BW366">
+        <v>0</v>
+      </c>
+      <c r="BX366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A367" s="2">
+        <v>44442</v>
+      </c>
+      <c r="B367">
+        <v>17</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>3</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+      <c r="G367">
+        <v>0</v>
+      </c>
+      <c r="H367">
+        <v>1</v>
+      </c>
+      <c r="I367">
+        <v>2</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
+        <v>0</v>
+      </c>
+      <c r="L367">
+        <v>3</v>
+      </c>
+      <c r="M367">
+        <v>4</v>
+      </c>
+      <c r="N367">
+        <v>3</v>
+      </c>
+      <c r="O367">
+        <v>3</v>
+      </c>
+      <c r="P367">
+        <v>1</v>
+      </c>
+      <c r="Q367">
+        <v>1</v>
+      </c>
+      <c r="R367">
+        <v>0</v>
+      </c>
+      <c r="S367">
+        <v>1</v>
+      </c>
+      <c r="T367">
+        <v>1</v>
+      </c>
+      <c r="U367">
+        <v>0</v>
+      </c>
+      <c r="V367">
+        <v>0</v>
+      </c>
+      <c r="W367">
+        <v>2</v>
+      </c>
+      <c r="X367">
+        <v>8</v>
+      </c>
+      <c r="Y367">
+        <v>0</v>
+      </c>
+      <c r="Z367">
+        <v>1</v>
+      </c>
+      <c r="AA367">
+        <v>0</v>
+      </c>
+      <c r="AB367">
+        <v>1</v>
+      </c>
+      <c r="AC367">
+        <v>2</v>
+      </c>
+      <c r="AD367">
+        <v>0</v>
+      </c>
+      <c r="AE367">
+        <v>0</v>
+      </c>
+      <c r="AF367">
+        <v>8</v>
+      </c>
+      <c r="AG367">
+        <v>3</v>
+      </c>
+      <c r="AH367">
+        <v>1</v>
+      </c>
+      <c r="AI367">
+        <v>0</v>
+      </c>
+      <c r="AJ367">
+        <v>0</v>
+      </c>
+      <c r="AK367">
+        <v>0</v>
+      </c>
+      <c r="AL367">
+        <v>0</v>
+      </c>
+      <c r="AM367">
+        <v>0</v>
+      </c>
+      <c r="AN367">
+        <v>0</v>
+      </c>
+      <c r="AO367">
+        <v>2</v>
+      </c>
+      <c r="AP367">
+        <v>0</v>
+      </c>
+      <c r="AQ367">
+        <v>5</v>
+      </c>
+      <c r="AR367">
+        <v>0</v>
+      </c>
+      <c r="AS367">
+        <v>0</v>
+      </c>
+      <c r="AT367">
+        <v>0</v>
+      </c>
+      <c r="AU367">
+        <v>2</v>
+      </c>
+      <c r="AV367">
+        <v>1</v>
+      </c>
+      <c r="AW367">
+        <v>1</v>
+      </c>
+      <c r="AX367">
+        <v>0</v>
+      </c>
+      <c r="AY367">
+        <v>2</v>
+      </c>
+      <c r="AZ367">
+        <v>2</v>
+      </c>
+      <c r="BA367">
+        <v>2</v>
+      </c>
+      <c r="BB367">
+        <v>10</v>
+      </c>
+      <c r="BC367">
+        <v>0</v>
+      </c>
+      <c r="BD367">
+        <v>1</v>
+      </c>
+      <c r="BE367">
+        <v>0</v>
+      </c>
+      <c r="BF367">
+        <v>1</v>
+      </c>
+      <c r="BG367">
+        <v>2</v>
+      </c>
+      <c r="BH367">
+        <v>2</v>
+      </c>
+      <c r="BI367">
+        <v>0</v>
+      </c>
+      <c r="BJ367">
+        <v>0</v>
+      </c>
+      <c r="BK367">
+        <v>0</v>
+      </c>
+      <c r="BL367">
+        <v>0</v>
+      </c>
+      <c r="BM367">
+        <v>0</v>
+      </c>
+      <c r="BN367">
+        <v>0</v>
+      </c>
+      <c r="BO367">
+        <v>1</v>
+      </c>
+      <c r="BP367">
+        <v>0</v>
+      </c>
+      <c r="BQ367">
+        <v>0</v>
+      </c>
+      <c r="BR367">
+        <v>0</v>
+      </c>
+      <c r="BS367">
+        <v>2</v>
+      </c>
+      <c r="BT367">
+        <v>1</v>
+      </c>
+      <c r="BU367">
+        <v>1</v>
+      </c>
+      <c r="BV367">
+        <v>0</v>
+      </c>
+      <c r="BW367">
+        <v>0</v>
+      </c>
+      <c r="BX367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A368" s="2">
+        <v>44443</v>
+      </c>
+      <c r="B368">
+        <v>15</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+      <c r="H368">
+        <v>0</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368">
+        <v>0</v>
+      </c>
+      <c r="L368">
+        <v>4</v>
+      </c>
+      <c r="M368">
+        <v>5</v>
+      </c>
+      <c r="N368">
+        <v>2</v>
+      </c>
+      <c r="O368">
+        <v>2</v>
+      </c>
+      <c r="P368">
+        <v>0</v>
+      </c>
+      <c r="Q368">
+        <v>0</v>
+      </c>
+      <c r="R368">
+        <v>0</v>
+      </c>
+      <c r="S368">
+        <v>1</v>
+      </c>
+      <c r="T368">
+        <v>0</v>
+      </c>
+      <c r="U368">
+        <v>2</v>
+      </c>
+      <c r="V368">
+        <v>0</v>
+      </c>
+      <c r="W368">
+        <v>1</v>
+      </c>
+      <c r="X368">
+        <v>3</v>
+      </c>
+      <c r="Y368">
+        <v>0</v>
+      </c>
+      <c r="Z368">
+        <v>0</v>
+      </c>
+      <c r="AA368">
+        <v>0</v>
+      </c>
+      <c r="AB368">
+        <v>2</v>
+      </c>
+      <c r="AC368">
+        <v>0</v>
+      </c>
+      <c r="AD368">
+        <v>0</v>
+      </c>
+      <c r="AE368">
+        <v>0</v>
+      </c>
+      <c r="AF368">
+        <v>2</v>
+      </c>
+      <c r="AG368">
+        <v>0</v>
+      </c>
+      <c r="AH368">
+        <v>0</v>
+      </c>
+      <c r="AI368">
+        <v>1</v>
+      </c>
+      <c r="AJ368">
+        <v>1</v>
+      </c>
+      <c r="AK368">
+        <v>0</v>
+      </c>
+      <c r="AL368">
+        <v>2</v>
+      </c>
+      <c r="AM368">
+        <v>0</v>
+      </c>
+      <c r="AN368">
+        <v>2</v>
+      </c>
+      <c r="AO368">
+        <v>3</v>
+      </c>
+      <c r="AP368">
+        <v>1</v>
+      </c>
+      <c r="AQ368">
+        <v>1</v>
+      </c>
+      <c r="AR368">
+        <v>0</v>
+      </c>
+      <c r="AS368">
+        <v>0</v>
+      </c>
+      <c r="AT368">
+        <v>0</v>
+      </c>
+      <c r="AU368">
+        <v>0</v>
+      </c>
+      <c r="AV368">
+        <v>0</v>
+      </c>
+      <c r="AW368">
+        <v>1</v>
+      </c>
+      <c r="AX368">
+        <v>0</v>
+      </c>
+      <c r="AY368">
+        <v>0</v>
+      </c>
+      <c r="AZ368">
+        <v>0</v>
+      </c>
+      <c r="BA368">
+        <v>2</v>
+      </c>
+      <c r="BB368">
+        <v>4</v>
+      </c>
+      <c r="BC368">
+        <v>1</v>
+      </c>
+      <c r="BD368">
+        <v>2</v>
+      </c>
+      <c r="BE368">
+        <v>0</v>
+      </c>
+      <c r="BF368">
+        <v>2</v>
+      </c>
+      <c r="BG368">
+        <v>1</v>
+      </c>
+      <c r="BH368">
+        <v>1</v>
+      </c>
+      <c r="BI368">
+        <v>0</v>
+      </c>
+      <c r="BJ368">
+        <v>0</v>
+      </c>
+      <c r="BK368">
+        <v>0</v>
+      </c>
+      <c r="BL368">
+        <v>0</v>
+      </c>
+      <c r="BM368">
+        <v>0</v>
+      </c>
+      <c r="BN368">
+        <v>0</v>
+      </c>
+      <c r="BO368">
+        <v>1</v>
+      </c>
+      <c r="BP368">
+        <v>0</v>
+      </c>
+      <c r="BQ368">
+        <v>1</v>
+      </c>
+      <c r="BR368">
+        <v>0</v>
+      </c>
+      <c r="BS368">
+        <v>2</v>
+      </c>
+      <c r="BT368">
+        <v>1</v>
+      </c>
+      <c r="BU368">
+        <v>0</v>
+      </c>
+      <c r="BV368">
+        <v>0</v>
+      </c>
+      <c r="BW368">
+        <v>0</v>
+      </c>
+      <c r="BX368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A369" s="2">
+        <v>44444</v>
+      </c>
+      <c r="B369">
+        <v>12</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>4</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+      <c r="G369">
+        <v>0</v>
+      </c>
+      <c r="H369">
+        <v>2</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369">
+        <v>2</v>
+      </c>
+      <c r="L369">
+        <v>0</v>
+      </c>
+      <c r="M369">
+        <v>5</v>
+      </c>
+      <c r="N369">
+        <v>3</v>
+      </c>
+      <c r="O369">
+        <v>1</v>
+      </c>
+      <c r="P369">
+        <v>0</v>
+      </c>
+      <c r="Q369">
+        <v>0</v>
+      </c>
+      <c r="R369">
+        <v>0</v>
+      </c>
+      <c r="S369">
+        <v>1</v>
+      </c>
+      <c r="T369">
+        <v>1</v>
+      </c>
+      <c r="U369">
+        <v>4</v>
+      </c>
+      <c r="V369">
+        <v>0</v>
+      </c>
+      <c r="W369">
+        <v>1</v>
+      </c>
+      <c r="X369">
+        <v>2</v>
+      </c>
+      <c r="Y369">
+        <v>1</v>
+      </c>
+      <c r="Z369">
+        <v>5</v>
+      </c>
+      <c r="AA369">
+        <v>0</v>
+      </c>
+      <c r="AB369">
+        <v>2</v>
+      </c>
+      <c r="AC369">
+        <v>0</v>
+      </c>
+      <c r="AD369">
+        <v>0</v>
+      </c>
+      <c r="AE369">
+        <v>0</v>
+      </c>
+      <c r="AF369">
+        <v>8</v>
+      </c>
+      <c r="AG369">
+        <v>1</v>
+      </c>
+      <c r="AH369">
+        <v>0</v>
+      </c>
+      <c r="AI369">
+        <v>0</v>
+      </c>
+      <c r="AJ369">
+        <v>0</v>
+      </c>
+      <c r="AK369">
+        <v>1</v>
+      </c>
+      <c r="AL369">
+        <v>1</v>
+      </c>
+      <c r="AM369">
+        <v>0</v>
+      </c>
+      <c r="AN369">
+        <v>0</v>
+      </c>
+      <c r="AO369">
+        <v>0</v>
+      </c>
+      <c r="AP369">
+        <v>0</v>
+      </c>
+      <c r="AQ369">
+        <v>5</v>
+      </c>
+      <c r="AR369">
+        <v>1</v>
+      </c>
+      <c r="AS369">
+        <v>0</v>
+      </c>
+      <c r="AT369">
+        <v>0</v>
+      </c>
+      <c r="AU369">
+        <v>0</v>
+      </c>
+      <c r="AV369">
+        <v>2</v>
+      </c>
+      <c r="AW369">
+        <v>2</v>
+      </c>
+      <c r="AX369">
+        <v>0</v>
+      </c>
+      <c r="AY369">
+        <v>0</v>
+      </c>
+      <c r="AZ369">
+        <v>0</v>
+      </c>
+      <c r="BA369">
+        <v>1</v>
+      </c>
+      <c r="BB369">
+        <v>5</v>
+      </c>
+      <c r="BC369">
+        <v>0</v>
+      </c>
+      <c r="BD369">
+        <v>1</v>
+      </c>
+      <c r="BE369">
+        <v>1</v>
+      </c>
+      <c r="BF369">
+        <v>1</v>
+      </c>
+      <c r="BG369">
+        <v>1</v>
+      </c>
+      <c r="BH369">
+        <v>0</v>
+      </c>
+      <c r="BI369">
+        <v>0</v>
+      </c>
+      <c r="BJ369">
+        <v>0</v>
+      </c>
+      <c r="BK369">
+        <v>0</v>
+      </c>
+      <c r="BL369">
+        <v>0</v>
+      </c>
+      <c r="BM369">
+        <v>0</v>
+      </c>
+      <c r="BN369">
+        <v>0</v>
+      </c>
+      <c r="BO369">
+        <v>2</v>
+      </c>
+      <c r="BP369">
+        <v>0</v>
+      </c>
+      <c r="BQ369">
+        <v>0</v>
+      </c>
+      <c r="BR369">
+        <v>0</v>
+      </c>
+      <c r="BS369">
+        <v>0</v>
+      </c>
+      <c r="BT369">
+        <v>0</v>
+      </c>
+      <c r="BU369">
+        <v>0</v>
+      </c>
+      <c r="BV369">
+        <v>0</v>
+      </c>
+      <c r="BW369">
+        <v>1</v>
+      </c>
+      <c r="BX369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A370" s="2">
+        <v>44445</v>
+      </c>
+      <c r="B370">
+        <v>9</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370">
+        <v>0</v>
+      </c>
+      <c r="F370">
+        <v>1</v>
+      </c>
+      <c r="G370">
+        <v>0</v>
+      </c>
+      <c r="H370">
+        <v>4</v>
+      </c>
+      <c r="I370">
+        <v>1</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370">
+        <v>1</v>
+      </c>
+      <c r="L370">
+        <v>0</v>
+      </c>
+      <c r="M370">
+        <v>3</v>
+      </c>
+      <c r="N370">
+        <v>0</v>
+      </c>
+      <c r="O370">
+        <v>0</v>
+      </c>
+      <c r="P370">
+        <v>0</v>
+      </c>
+      <c r="Q370">
+        <v>0</v>
+      </c>
+      <c r="R370">
+        <v>0</v>
+      </c>
+      <c r="S370">
+        <v>1</v>
+      </c>
+      <c r="T370">
+        <v>0</v>
+      </c>
+      <c r="U370">
+        <v>1</v>
+      </c>
+      <c r="V370">
+        <v>0</v>
+      </c>
+      <c r="W370">
+        <v>4</v>
+      </c>
+      <c r="X370">
+        <v>5</v>
+      </c>
+      <c r="Y370">
+        <v>1</v>
+      </c>
+      <c r="Z370">
+        <v>4</v>
+      </c>
+      <c r="AA370">
+        <v>1</v>
+      </c>
+      <c r="AB370">
+        <v>0</v>
+      </c>
+      <c r="AC370">
+        <v>0</v>
+      </c>
+      <c r="AD370">
+        <v>1</v>
+      </c>
+      <c r="AE370">
+        <v>0</v>
+      </c>
+      <c r="AF370">
+        <v>3</v>
+      </c>
+      <c r="AG370">
+        <v>0</v>
+      </c>
+      <c r="AH370">
+        <v>1</v>
+      </c>
+      <c r="AI370">
+        <v>0</v>
+      </c>
+      <c r="AJ370">
+        <v>0</v>
+      </c>
+      <c r="AK370">
+        <v>0</v>
+      </c>
+      <c r="AL370">
+        <v>1</v>
+      </c>
+      <c r="AM370">
+        <v>0</v>
+      </c>
+      <c r="AN370">
+        <v>0</v>
+      </c>
+      <c r="AO370">
+        <v>4</v>
+      </c>
+      <c r="AP370">
+        <v>0</v>
+      </c>
+      <c r="AQ370">
+        <v>2</v>
+      </c>
+      <c r="AR370">
+        <v>0</v>
+      </c>
+      <c r="AS370">
+        <v>0</v>
+      </c>
+      <c r="AT370">
+        <v>0</v>
+      </c>
+      <c r="AU370">
+        <v>2</v>
+      </c>
+      <c r="AV370">
+        <v>0</v>
+      </c>
+      <c r="AW370">
+        <v>1</v>
+      </c>
+      <c r="AX370">
+        <v>0</v>
+      </c>
+      <c r="AY370">
+        <v>2</v>
+      </c>
+      <c r="AZ370">
+        <v>0</v>
+      </c>
+      <c r="BA370">
+        <v>0</v>
+      </c>
+      <c r="BB370">
+        <v>4</v>
+      </c>
+      <c r="BC370">
+        <v>1</v>
+      </c>
+      <c r="BD370">
+        <v>1</v>
+      </c>
+      <c r="BE370">
+        <v>3</v>
+      </c>
+      <c r="BF370">
+        <v>1</v>
+      </c>
+      <c r="BG370">
+        <v>1</v>
+      </c>
+      <c r="BH370">
+        <v>0</v>
+      </c>
+      <c r="BI370">
+        <v>1</v>
+      </c>
+      <c r="BJ370">
+        <v>0</v>
+      </c>
+      <c r="BK370">
+        <v>0</v>
+      </c>
+      <c r="BL370">
+        <v>0</v>
+      </c>
+      <c r="BM370">
+        <v>1</v>
+      </c>
+      <c r="BN370">
+        <v>0</v>
+      </c>
+      <c r="BO370">
+        <v>3</v>
+      </c>
+      <c r="BP370">
+        <v>0</v>
+      </c>
+      <c r="BQ370">
+        <v>1</v>
+      </c>
+      <c r="BR370">
+        <v>0</v>
+      </c>
+      <c r="BS370">
+        <v>1</v>
+      </c>
+      <c r="BT370">
+        <v>0</v>
+      </c>
+      <c r="BU370">
+        <v>0</v>
+      </c>
+      <c r="BV370">
+        <v>0</v>
+      </c>
+      <c r="BW370">
+        <v>1</v>
+      </c>
+      <c r="BX370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A371" s="2">
+        <v>44446</v>
+      </c>
+      <c r="B371">
+        <v>8</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371">
+        <v>5</v>
+      </c>
+      <c r="F371">
+        <v>1</v>
+      </c>
+      <c r="G371">
+        <v>0</v>
+      </c>
+      <c r="H371">
+        <v>2</v>
+      </c>
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>0</v>
+      </c>
+      <c r="L371">
+        <v>0</v>
+      </c>
+      <c r="M371">
+        <v>1</v>
+      </c>
+      <c r="N371">
+        <v>1</v>
+      </c>
+      <c r="O371">
+        <v>2</v>
+      </c>
+      <c r="P371">
+        <v>1</v>
+      </c>
+      <c r="Q371">
+        <v>1</v>
+      </c>
+      <c r="R371">
+        <v>0</v>
+      </c>
+      <c r="S371">
+        <v>3</v>
+      </c>
+      <c r="T371">
+        <v>1</v>
+      </c>
+      <c r="U371">
+        <v>5</v>
+      </c>
+      <c r="V371">
+        <v>1</v>
+      </c>
+      <c r="W371">
+        <v>4</v>
+      </c>
+      <c r="X371">
+        <v>3</v>
+      </c>
+      <c r="Y371">
+        <v>0</v>
+      </c>
+      <c r="Z371">
+        <v>5</v>
+      </c>
+      <c r="AA371">
+        <v>1</v>
+      </c>
+      <c r="AB371">
+        <v>1</v>
+      </c>
+      <c r="AC371">
+        <v>0</v>
+      </c>
+      <c r="AD371">
+        <v>1</v>
+      </c>
+      <c r="AE371">
+        <v>0</v>
+      </c>
+      <c r="AF371">
+        <v>2</v>
+      </c>
+      <c r="AG371">
+        <v>0</v>
+      </c>
+      <c r="AH371">
+        <v>1</v>
+      </c>
+      <c r="AI371">
+        <v>0</v>
+      </c>
+      <c r="AJ371">
+        <v>1</v>
+      </c>
+      <c r="AK371">
+        <v>2</v>
+      </c>
+      <c r="AL371">
+        <v>1</v>
+      </c>
+      <c r="AM371">
+        <v>0</v>
+      </c>
+      <c r="AN371">
+        <v>0</v>
+      </c>
+      <c r="AO371">
+        <v>2</v>
+      </c>
+      <c r="AP371">
+        <v>0</v>
+      </c>
+      <c r="AQ371">
+        <v>1</v>
+      </c>
+      <c r="AR371">
+        <v>0</v>
+      </c>
+      <c r="AS371">
+        <v>1</v>
+      </c>
+      <c r="AT371">
+        <v>5</v>
+      </c>
+      <c r="AU371">
+        <v>0</v>
+      </c>
+      <c r="AV371">
+        <v>0</v>
+      </c>
+      <c r="AW371">
+        <v>1</v>
+      </c>
+      <c r="AX371">
+        <v>0</v>
+      </c>
+      <c r="AY371">
+        <v>1</v>
+      </c>
+      <c r="AZ371">
+        <v>0</v>
+      </c>
+      <c r="BA371">
+        <v>2</v>
+      </c>
+      <c r="BB371">
+        <v>3</v>
+      </c>
+      <c r="BC371">
+        <v>0</v>
+      </c>
+      <c r="BD371">
+        <v>2</v>
+      </c>
+      <c r="BE371">
+        <v>1</v>
+      </c>
+      <c r="BF371">
+        <v>0</v>
+      </c>
+      <c r="BG371">
+        <v>0</v>
+      </c>
+      <c r="BH371">
+        <v>1</v>
+      </c>
+      <c r="BI371">
+        <v>1</v>
+      </c>
+      <c r="BJ371">
+        <v>0</v>
+      </c>
+      <c r="BK371">
+        <v>1</v>
+      </c>
+      <c r="BL371">
+        <v>1</v>
+      </c>
+      <c r="BM371">
+        <v>0</v>
+      </c>
+      <c r="BN371">
+        <v>0</v>
+      </c>
+      <c r="BO371">
+        <v>0</v>
+      </c>
+      <c r="BP371">
+        <v>0</v>
+      </c>
+      <c r="BQ371">
+        <v>0</v>
+      </c>
+      <c r="BR371">
+        <v>0</v>
+      </c>
+      <c r="BS371">
+        <v>1</v>
+      </c>
+      <c r="BT371">
+        <v>1</v>
+      </c>
+      <c r="BU371">
+        <v>0</v>
+      </c>
+      <c r="BV371">
+        <v>0</v>
+      </c>
+      <c r="BW371">
+        <v>0</v>
+      </c>
+      <c r="BX371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A372" s="2">
+        <v>44447</v>
+      </c>
+      <c r="B372">
+        <v>12</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+      <c r="E372">
+        <v>0</v>
+      </c>
+      <c r="F372">
+        <v>0</v>
+      </c>
+      <c r="G372">
+        <v>0</v>
+      </c>
+      <c r="H372">
+        <v>1</v>
+      </c>
+      <c r="I372">
+        <v>1</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>0</v>
+      </c>
+      <c r="L372">
+        <v>1</v>
+      </c>
+      <c r="M372">
+        <v>2</v>
+      </c>
+      <c r="N372">
+        <v>1</v>
+      </c>
+      <c r="O372">
+        <v>0</v>
+      </c>
+      <c r="P372">
+        <v>0</v>
+      </c>
+      <c r="Q372">
+        <v>0</v>
+      </c>
+      <c r="R372">
+        <v>0</v>
+      </c>
+      <c r="S372">
+        <v>1</v>
+      </c>
+      <c r="T372">
+        <v>1</v>
+      </c>
+      <c r="U372">
+        <v>0</v>
+      </c>
+      <c r="V372">
+        <v>0</v>
+      </c>
+      <c r="W372">
+        <v>2</v>
+      </c>
+      <c r="X372">
+        <v>2</v>
+      </c>
+      <c r="Y372">
+        <v>0</v>
+      </c>
+      <c r="Z372">
+        <v>3</v>
+      </c>
+      <c r="AA372">
+        <v>2</v>
+      </c>
+      <c r="AB372">
+        <v>2</v>
+      </c>
+      <c r="AC372">
+        <v>1</v>
+      </c>
+      <c r="AD372">
+        <v>0</v>
+      </c>
+      <c r="AE372">
+        <v>0</v>
+      </c>
+      <c r="AF372">
+        <v>12</v>
+      </c>
+      <c r="AG372">
+        <v>0</v>
+      </c>
+      <c r="AH372">
+        <v>1</v>
+      </c>
+      <c r="AI372">
+        <v>0</v>
+      </c>
+      <c r="AJ372">
+        <v>0</v>
+      </c>
+      <c r="AK372">
+        <v>2</v>
+      </c>
+      <c r="AL372">
+        <v>0</v>
+      </c>
+      <c r="AM372">
+        <v>0</v>
+      </c>
+      <c r="AN372">
+        <v>0</v>
+      </c>
+      <c r="AO372">
+        <v>2</v>
+      </c>
+      <c r="AP372">
+        <v>0</v>
+      </c>
+      <c r="AQ372">
+        <v>4</v>
+      </c>
+      <c r="AR372">
+        <v>0</v>
+      </c>
+      <c r="AS372">
+        <v>0</v>
+      </c>
+      <c r="AT372">
+        <v>0</v>
+      </c>
+      <c r="AU372">
+        <v>1</v>
+      </c>
+      <c r="AV372">
+        <v>0</v>
+      </c>
+      <c r="AW372">
+        <v>2</v>
+      </c>
+      <c r="AX372">
+        <v>0</v>
+      </c>
+      <c r="AY372">
+        <v>0</v>
+      </c>
+      <c r="AZ372">
+        <v>0</v>
+      </c>
+      <c r="BA372">
+        <v>3</v>
+      </c>
+      <c r="BB372">
+        <v>4</v>
+      </c>
+      <c r="BC372">
+        <v>0</v>
+      </c>
+      <c r="BD372">
+        <v>0</v>
+      </c>
+      <c r="BE372">
+        <v>1</v>
+      </c>
+      <c r="BF372">
+        <v>1</v>
+      </c>
+      <c r="BG372">
+        <v>1</v>
+      </c>
+      <c r="BH372">
+        <v>0</v>
+      </c>
+      <c r="BI372">
+        <v>0</v>
+      </c>
+      <c r="BJ372">
+        <v>0</v>
+      </c>
+      <c r="BK372">
+        <v>0</v>
+      </c>
+      <c r="BL372">
+        <v>0</v>
+      </c>
+      <c r="BM372">
+        <v>0</v>
+      </c>
+      <c r="BN372">
+        <v>0</v>
+      </c>
+      <c r="BO372">
+        <v>4</v>
+      </c>
+      <c r="BP372">
+        <v>0</v>
+      </c>
+      <c r="BQ372">
+        <v>0</v>
+      </c>
+      <c r="BR372">
+        <v>0</v>
+      </c>
+      <c r="BS372">
+        <v>1</v>
+      </c>
+      <c r="BT372">
+        <v>1</v>
+      </c>
+      <c r="BU372">
+        <v>0</v>
+      </c>
+      <c r="BV372">
+        <v>0</v>
+      </c>
+      <c r="BW372">
+        <v>0</v>
+      </c>
+      <c r="BX372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A373" s="2">
+        <v>44448</v>
+      </c>
+      <c r="B373">
+        <v>15</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>3</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+      <c r="H373">
+        <v>1</v>
+      </c>
+      <c r="I373">
+        <v>1</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>0</v>
+      </c>
+      <c r="L373">
+        <v>0</v>
+      </c>
+      <c r="M373">
+        <v>2</v>
+      </c>
+      <c r="N373">
+        <v>2</v>
+      </c>
+      <c r="O373">
+        <v>1</v>
+      </c>
+      <c r="P373">
+        <v>0</v>
+      </c>
+      <c r="Q373">
+        <v>1</v>
+      </c>
+      <c r="R373">
+        <v>0</v>
+      </c>
+      <c r="S373">
+        <v>2</v>
+      </c>
+      <c r="T373">
+        <v>0</v>
+      </c>
+      <c r="U373">
+        <v>3</v>
+      </c>
+      <c r="V373">
+        <v>0</v>
+      </c>
+      <c r="W373">
+        <v>0</v>
+      </c>
+      <c r="X373">
+        <v>8</v>
+      </c>
+      <c r="Y373">
+        <v>1</v>
+      </c>
+      <c r="Z373">
+        <v>2</v>
+      </c>
+      <c r="AA373">
+        <v>0</v>
+      </c>
+      <c r="AB373">
+        <v>1</v>
+      </c>
+      <c r="AC373">
+        <v>0</v>
+      </c>
+      <c r="AD373">
+        <v>0</v>
+      </c>
+      <c r="AE373">
+        <v>0</v>
+      </c>
+      <c r="AF373">
+        <v>2</v>
+      </c>
+      <c r="AG373">
+        <v>0</v>
+      </c>
+      <c r="AH373">
+        <v>1</v>
+      </c>
+      <c r="AI373">
+        <v>0</v>
+      </c>
+      <c r="AJ373">
+        <v>1</v>
+      </c>
+      <c r="AK373">
+        <v>0</v>
+      </c>
+      <c r="AL373">
+        <v>1</v>
+      </c>
+      <c r="AM373">
+        <v>0</v>
+      </c>
+      <c r="AN373">
+        <v>0</v>
+      </c>
+      <c r="AO373">
+        <v>2</v>
+      </c>
+      <c r="AP373">
+        <v>0</v>
+      </c>
+      <c r="AQ373">
+        <v>4</v>
+      </c>
+      <c r="AR373">
+        <v>0</v>
+      </c>
+      <c r="AS373">
+        <v>1</v>
+      </c>
+      <c r="AT373">
+        <v>0</v>
+      </c>
+      <c r="AU373">
+        <v>0</v>
+      </c>
+      <c r="AV373">
+        <v>0</v>
+      </c>
+      <c r="AW373">
+        <v>1</v>
+      </c>
+      <c r="AX373">
+        <v>0</v>
+      </c>
+      <c r="AY373">
+        <v>1</v>
+      </c>
+      <c r="AZ373">
+        <v>0</v>
+      </c>
+      <c r="BA373">
+        <v>0</v>
+      </c>
+      <c r="BB373">
+        <v>3</v>
+      </c>
+      <c r="BC373">
+        <v>1</v>
+      </c>
+      <c r="BD373">
+        <v>3</v>
+      </c>
+      <c r="BE373">
+        <v>2</v>
+      </c>
+      <c r="BF373">
+        <v>1</v>
+      </c>
+      <c r="BG373">
+        <v>1</v>
+      </c>
+      <c r="BH373">
+        <v>1</v>
+      </c>
+      <c r="BI373">
+        <v>0</v>
+      </c>
+      <c r="BJ373">
+        <v>0</v>
+      </c>
+      <c r="BK373">
+        <v>0</v>
+      </c>
+      <c r="BL373">
+        <v>0</v>
+      </c>
+      <c r="BM373">
+        <v>0</v>
+      </c>
+      <c r="BN373">
+        <v>0</v>
+      </c>
+      <c r="BO373">
+        <v>1</v>
+      </c>
+      <c r="BP373">
+        <v>0</v>
+      </c>
+      <c r="BQ373">
+        <v>0</v>
+      </c>
+      <c r="BR373">
+        <v>0</v>
+      </c>
+      <c r="BS373">
+        <v>2</v>
+      </c>
+      <c r="BT373">
+        <v>0</v>
+      </c>
+      <c r="BU373">
+        <v>1</v>
+      </c>
+      <c r="BV373">
+        <v>0</v>
+      </c>
+      <c r="BW373">
+        <v>1</v>
+      </c>
+      <c r="BX373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A374" s="2">
+        <v>44449</v>
+      </c>
+      <c r="B374">
+        <v>10</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <v>1</v>
+      </c>
+      <c r="F374">
+        <v>2</v>
+      </c>
+      <c r="G374">
+        <v>0</v>
+      </c>
+      <c r="H374">
+        <v>1</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374">
+        <v>0</v>
+      </c>
+      <c r="L374">
+        <v>1</v>
+      </c>
+      <c r="M374">
+        <v>4</v>
+      </c>
+      <c r="N374">
+        <v>0</v>
+      </c>
+      <c r="O374">
+        <v>1</v>
+      </c>
+      <c r="P374">
+        <v>0</v>
+      </c>
+      <c r="Q374">
+        <v>0</v>
+      </c>
+      <c r="R374">
+        <v>0</v>
+      </c>
+      <c r="S374">
+        <v>2</v>
+      </c>
+      <c r="T374">
+        <v>1</v>
+      </c>
+      <c r="U374">
+        <v>1</v>
+      </c>
+      <c r="V374">
+        <v>0</v>
+      </c>
+      <c r="W374">
+        <v>3</v>
+      </c>
+      <c r="X374">
+        <v>9</v>
+      </c>
+      <c r="Y374">
+        <v>0</v>
+      </c>
+      <c r="Z374">
+        <v>3</v>
+      </c>
+      <c r="AA374">
+        <v>0</v>
+      </c>
+      <c r="AB374">
+        <v>1</v>
+      </c>
+      <c r="AC374">
+        <v>1</v>
+      </c>
+      <c r="AD374">
+        <v>0</v>
+      </c>
+      <c r="AE374">
+        <v>1</v>
+      </c>
+      <c r="AF374">
+        <v>2</v>
+      </c>
+      <c r="AG374">
+        <v>0</v>
+      </c>
+      <c r="AH374">
+        <v>0</v>
+      </c>
+      <c r="AI374">
+        <v>0</v>
+      </c>
+      <c r="AJ374">
+        <v>0</v>
+      </c>
+      <c r="AK374">
+        <v>0</v>
+      </c>
+      <c r="AL374">
+        <v>0</v>
+      </c>
+      <c r="AM374">
+        <v>0</v>
+      </c>
+      <c r="AN374">
+        <v>0</v>
+      </c>
+      <c r="AO374">
+        <v>1</v>
+      </c>
+      <c r="AP374">
+        <v>0</v>
+      </c>
+      <c r="AQ374">
+        <v>0</v>
+      </c>
+      <c r="AR374">
+        <v>0</v>
+      </c>
+      <c r="AS374">
+        <v>0</v>
+      </c>
+      <c r="AT374">
+        <v>0</v>
+      </c>
+      <c r="AU374">
+        <v>1</v>
+      </c>
+      <c r="AV374">
+        <v>1</v>
+      </c>
+      <c r="AW374">
+        <v>2</v>
+      </c>
+      <c r="AX374">
+        <v>0</v>
+      </c>
+      <c r="AY374">
+        <v>0</v>
+      </c>
+      <c r="AZ374">
+        <v>1</v>
+      </c>
+      <c r="BA374">
+        <v>1</v>
+      </c>
+      <c r="BB374">
+        <v>2</v>
+      </c>
+      <c r="BC374">
+        <v>2</v>
+      </c>
+      <c r="BD374">
+        <v>3</v>
+      </c>
+      <c r="BE374">
+        <v>1</v>
+      </c>
+      <c r="BF374">
+        <v>1</v>
+      </c>
+      <c r="BG374">
+        <v>1</v>
+      </c>
+      <c r="BH374">
+        <v>1</v>
+      </c>
+      <c r="BI374">
+        <v>0</v>
+      </c>
+      <c r="BJ374">
+        <v>0</v>
+      </c>
+      <c r="BK374">
+        <v>0</v>
+      </c>
+      <c r="BL374">
+        <v>0</v>
+      </c>
+      <c r="BM374">
+        <v>0</v>
+      </c>
+      <c r="BN374">
+        <v>0</v>
+      </c>
+      <c r="BO374">
+        <v>2</v>
+      </c>
+      <c r="BP374">
+        <v>1</v>
+      </c>
+      <c r="BQ374">
+        <v>0</v>
+      </c>
+      <c r="BR374">
+        <v>0</v>
+      </c>
+      <c r="BS374">
+        <v>1</v>
+      </c>
+      <c r="BT374">
+        <v>0</v>
+      </c>
+      <c r="BU374">
+        <v>0</v>
+      </c>
+      <c r="BV374">
+        <v>0</v>
+      </c>
+      <c r="BW374">
+        <v>0</v>
+      </c>
+      <c r="BX374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A375" s="2">
+        <v>44450</v>
+      </c>
+      <c r="B375">
+        <v>11</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <v>3</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+      <c r="G375">
+        <v>0</v>
+      </c>
+      <c r="H375">
+        <v>0</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>2</v>
+      </c>
+      <c r="L375">
+        <v>1</v>
+      </c>
+      <c r="M375">
+        <v>4</v>
+      </c>
+      <c r="N375">
+        <v>0</v>
+      </c>
+      <c r="O375">
+        <v>1</v>
+      </c>
+      <c r="P375">
+        <v>0</v>
+      </c>
+      <c r="Q375">
+        <v>1</v>
+      </c>
+      <c r="R375">
+        <v>0</v>
+      </c>
+      <c r="S375">
+        <v>0</v>
+      </c>
+      <c r="T375">
+        <v>0</v>
+      </c>
+      <c r="U375">
+        <v>0</v>
+      </c>
+      <c r="V375">
+        <v>0</v>
+      </c>
+      <c r="W375">
+        <v>0</v>
+      </c>
+      <c r="X375">
+        <v>4</v>
+      </c>
+      <c r="Y375">
+        <v>0</v>
+      </c>
+      <c r="Z375">
+        <v>3</v>
+      </c>
+      <c r="AA375">
+        <v>0</v>
+      </c>
+      <c r="AB375">
+        <v>1</v>
+      </c>
+      <c r="AC375">
+        <v>0</v>
+      </c>
+      <c r="AD375">
+        <v>0</v>
+      </c>
+      <c r="AE375">
+        <v>0</v>
+      </c>
+      <c r="AF375">
+        <v>3</v>
+      </c>
+      <c r="AG375">
+        <v>0</v>
+      </c>
+      <c r="AH375">
+        <v>2</v>
+      </c>
+      <c r="AI375">
+        <v>0</v>
+      </c>
+      <c r="AJ375">
+        <v>0</v>
+      </c>
+      <c r="AK375">
+        <v>0</v>
+      </c>
+      <c r="AL375">
+        <v>0</v>
+      </c>
+      <c r="AM375">
+        <v>0</v>
+      </c>
+      <c r="AN375">
+        <v>0</v>
+      </c>
+      <c r="AO375">
+        <v>1</v>
+      </c>
+      <c r="AP375">
+        <v>0</v>
+      </c>
+      <c r="AQ375">
+        <v>1</v>
+      </c>
+      <c r="AR375">
+        <v>0</v>
+      </c>
+      <c r="AS375">
+        <v>1</v>
+      </c>
+      <c r="AT375">
+        <v>0</v>
+      </c>
+      <c r="AU375">
+        <v>0</v>
+      </c>
+      <c r="AV375">
+        <v>0</v>
+      </c>
+      <c r="AW375">
+        <v>1</v>
+      </c>
+      <c r="AX375">
+        <v>0</v>
+      </c>
+      <c r="AY375">
+        <v>0</v>
+      </c>
+      <c r="AZ375">
+        <v>0</v>
+      </c>
+      <c r="BA375">
+        <v>1</v>
+      </c>
+      <c r="BB375">
+        <v>0</v>
+      </c>
+      <c r="BC375">
+        <v>1</v>
+      </c>
+      <c r="BD375">
+        <v>0</v>
+      </c>
+      <c r="BE375">
+        <v>2</v>
+      </c>
+      <c r="BF375">
+        <v>1</v>
+      </c>
+      <c r="BG375">
+        <v>1</v>
+      </c>
+      <c r="BH375">
+        <v>0</v>
+      </c>
+      <c r="BI375">
+        <v>1</v>
+      </c>
+      <c r="BJ375">
+        <v>0</v>
+      </c>
+      <c r="BK375">
+        <v>1</v>
+      </c>
+      <c r="BL375">
+        <v>0</v>
+      </c>
+      <c r="BM375">
+        <v>0</v>
+      </c>
+      <c r="BN375">
+        <v>0</v>
+      </c>
+      <c r="BO375">
+        <v>2</v>
+      </c>
+      <c r="BP375">
+        <v>0</v>
+      </c>
+      <c r="BQ375">
+        <v>0</v>
+      </c>
+      <c r="BR375">
+        <v>0</v>
+      </c>
+      <c r="BS375">
+        <v>1</v>
+      </c>
+      <c r="BT375">
+        <v>0</v>
+      </c>
+      <c r="BU375">
+        <v>1</v>
+      </c>
+      <c r="BV375">
+        <v>0</v>
+      </c>
+      <c r="BW375">
+        <v>0</v>
+      </c>
+      <c r="BX375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A376" s="2">
+        <v>44451</v>
+      </c>
+      <c r="B376">
+        <v>12</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+      <c r="E376">
+        <v>4</v>
+      </c>
+      <c r="F376">
+        <v>0</v>
+      </c>
+      <c r="G376">
+        <v>0</v>
+      </c>
+      <c r="H376">
+        <v>0</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>0</v>
+      </c>
+      <c r="L376">
+        <v>0</v>
+      </c>
+      <c r="M376">
+        <v>1</v>
+      </c>
+      <c r="N376">
+        <v>0</v>
+      </c>
+      <c r="O376">
+        <v>0</v>
+      </c>
+      <c r="P376">
+        <v>0</v>
+      </c>
+      <c r="Q376">
+        <v>2</v>
+      </c>
+      <c r="R376">
+        <v>0</v>
+      </c>
+      <c r="S376">
+        <v>0</v>
+      </c>
+      <c r="T376">
+        <v>0</v>
+      </c>
+      <c r="U376">
+        <v>1</v>
+      </c>
+      <c r="V376">
+        <v>0</v>
+      </c>
+      <c r="W376">
+        <v>0</v>
+      </c>
+      <c r="X376">
+        <v>10</v>
+      </c>
+      <c r="Y376">
+        <v>2</v>
+      </c>
+      <c r="Z376">
+        <v>0</v>
+      </c>
+      <c r="AA376">
+        <v>0</v>
+      </c>
+      <c r="AB376">
+        <v>1</v>
+      </c>
+      <c r="AC376">
+        <v>0</v>
+      </c>
+      <c r="AD376">
+        <v>0</v>
+      </c>
+      <c r="AE376">
+        <v>0</v>
+      </c>
+      <c r="AF376">
+        <v>4</v>
+      </c>
+      <c r="AG376">
+        <v>0</v>
+      </c>
+      <c r="AH376">
+        <v>0</v>
+      </c>
+      <c r="AI376">
+        <v>0</v>
+      </c>
+      <c r="AJ376">
+        <v>0</v>
+      </c>
+      <c r="AK376">
+        <v>0</v>
+      </c>
+      <c r="AL376">
+        <v>0</v>
+      </c>
+      <c r="AM376">
+        <v>0</v>
+      </c>
+      <c r="AN376">
+        <v>1</v>
+      </c>
+      <c r="AO376">
+        <v>2</v>
+      </c>
+      <c r="AP376">
+        <v>0</v>
+      </c>
+      <c r="AQ376">
+        <v>2</v>
+      </c>
+      <c r="AR376">
+        <v>0</v>
+      </c>
+      <c r="AS376">
+        <v>0</v>
+      </c>
+      <c r="AT376">
+        <v>0</v>
+      </c>
+      <c r="AU376">
+        <v>1</v>
+      </c>
+      <c r="AV376">
+        <v>0</v>
+      </c>
+      <c r="AW376">
+        <v>0</v>
+      </c>
+      <c r="AX376">
+        <v>1</v>
+      </c>
+      <c r="AY376">
+        <v>1</v>
+      </c>
+      <c r="AZ376">
+        <v>0</v>
+      </c>
+      <c r="BA376">
+        <v>1</v>
+      </c>
+      <c r="BB376">
+        <v>1</v>
+      </c>
+      <c r="BC376">
+        <v>0</v>
+      </c>
+      <c r="BD376">
+        <v>4</v>
+      </c>
+      <c r="BE376">
+        <v>0</v>
+      </c>
+      <c r="BF376">
+        <v>0</v>
+      </c>
+      <c r="BG376">
+        <v>2</v>
+      </c>
+      <c r="BH376">
+        <v>1</v>
+      </c>
+      <c r="BI376">
+        <v>1</v>
+      </c>
+      <c r="BJ376">
+        <v>0</v>
+      </c>
+      <c r="BK376">
+        <v>1</v>
+      </c>
+      <c r="BL376">
+        <v>0</v>
+      </c>
+      <c r="BM376">
+        <v>0</v>
+      </c>
+      <c r="BN376">
+        <v>0</v>
+      </c>
+      <c r="BO376">
+        <v>0</v>
+      </c>
+      <c r="BP376">
+        <v>0</v>
+      </c>
+      <c r="BQ376">
+        <v>0</v>
+      </c>
+      <c r="BR376">
+        <v>0</v>
+      </c>
+      <c r="BS376">
+        <v>0</v>
+      </c>
+      <c r="BT376">
+        <v>0</v>
+      </c>
+      <c r="BU376">
+        <v>1</v>
+      </c>
+      <c r="BV376">
+        <v>0</v>
+      </c>
+      <c r="BW376">
+        <v>1</v>
+      </c>
+      <c r="BX376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A377" s="2">
+        <v>44452</v>
+      </c>
+      <c r="B377">
+        <v>12</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <v>1</v>
+      </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
+      <c r="H377">
+        <v>1</v>
+      </c>
+      <c r="I377">
+        <v>1</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377">
+        <v>1</v>
+      </c>
+      <c r="L377">
+        <v>0</v>
+      </c>
+      <c r="M377">
+        <v>4</v>
+      </c>
+      <c r="N377">
+        <v>0</v>
+      </c>
+      <c r="O377">
+        <v>1</v>
+      </c>
+      <c r="P377">
+        <v>2</v>
+      </c>
+      <c r="Q377">
+        <v>1</v>
+      </c>
+      <c r="R377">
+        <v>0</v>
+      </c>
+      <c r="S377">
+        <v>1</v>
+      </c>
+      <c r="T377">
+        <v>3</v>
+      </c>
+      <c r="U377">
+        <v>1</v>
+      </c>
+      <c r="V377">
+        <v>0</v>
+      </c>
+      <c r="W377">
+        <v>7</v>
+      </c>
+      <c r="X377">
+        <v>2</v>
+      </c>
+      <c r="Y377">
+        <v>1</v>
+      </c>
+      <c r="Z377">
+        <v>1</v>
+      </c>
+      <c r="AA377">
+        <v>0</v>
+      </c>
+      <c r="AB377">
+        <v>1</v>
+      </c>
+      <c r="AC377">
+        <v>0</v>
+      </c>
+      <c r="AD377">
+        <v>0</v>
+      </c>
+      <c r="AE377">
+        <v>0</v>
+      </c>
+      <c r="AF377">
+        <v>6</v>
+      </c>
+      <c r="AG377">
+        <v>0</v>
+      </c>
+      <c r="AH377">
+        <v>0</v>
+      </c>
+      <c r="AI377">
+        <v>0</v>
+      </c>
+      <c r="AJ377">
+        <v>0</v>
+      </c>
+      <c r="AK377">
+        <v>0</v>
+      </c>
+      <c r="AL377">
+        <v>0</v>
+      </c>
+      <c r="AM377">
+        <v>0</v>
+      </c>
+      <c r="AN377">
+        <v>1</v>
+      </c>
+      <c r="AO377">
+        <v>4</v>
+      </c>
+      <c r="AP377">
+        <v>0</v>
+      </c>
+      <c r="AQ377">
+        <v>2</v>
+      </c>
+      <c r="AR377">
+        <v>0</v>
+      </c>
+      <c r="AS377">
+        <v>0</v>
+      </c>
+      <c r="AT377">
+        <v>2</v>
+      </c>
+      <c r="AU377">
+        <v>0</v>
+      </c>
+      <c r="AV377">
+        <v>0</v>
+      </c>
+      <c r="AW377">
+        <v>2</v>
+      </c>
+      <c r="AX377">
+        <v>0</v>
+      </c>
+      <c r="AY377">
+        <v>0</v>
+      </c>
+      <c r="AZ377">
+        <v>1</v>
+      </c>
+      <c r="BA377">
+        <v>0</v>
+      </c>
+      <c r="BB377">
+        <v>4</v>
+      </c>
+      <c r="BC377">
+        <v>0</v>
+      </c>
+      <c r="BD377">
+        <v>1</v>
+      </c>
+      <c r="BE377">
+        <v>2</v>
+      </c>
+      <c r="BF377">
+        <v>1</v>
+      </c>
+      <c r="BG377">
+        <v>2</v>
+      </c>
+      <c r="BH377">
+        <v>0</v>
+      </c>
+      <c r="BI377">
+        <v>0</v>
+      </c>
+      <c r="BJ377">
+        <v>0</v>
+      </c>
+      <c r="BK377">
+        <v>1</v>
+      </c>
+      <c r="BL377">
+        <v>0</v>
+      </c>
+      <c r="BM377">
+        <v>0</v>
+      </c>
+      <c r="BN377">
+        <v>0</v>
+      </c>
+      <c r="BO377">
+        <v>0</v>
+      </c>
+      <c r="BP377">
+        <v>0</v>
+      </c>
+      <c r="BQ377">
+        <v>0</v>
+      </c>
+      <c r="BR377">
+        <v>0</v>
+      </c>
+      <c r="BS377">
+        <v>0</v>
+      </c>
+      <c r="BT377">
+        <v>1</v>
+      </c>
+      <c r="BU377">
+        <v>0</v>
+      </c>
+      <c r="BV377">
+        <v>0</v>
+      </c>
+      <c r="BW377">
+        <v>1</v>
+      </c>
+      <c r="BX377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A378" s="2">
+        <v>44453</v>
+      </c>
+      <c r="B378">
+        <v>10</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+      <c r="E378">
+        <v>2</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
+      <c r="H378">
+        <v>4</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+      <c r="K378">
+        <v>1</v>
+      </c>
+      <c r="L378">
+        <v>0</v>
+      </c>
+      <c r="M378">
+        <v>2</v>
+      </c>
+      <c r="N378">
+        <v>1</v>
+      </c>
+      <c r="O378">
+        <v>0</v>
+      </c>
+      <c r="P378">
+        <v>0</v>
+      </c>
+      <c r="Q378">
+        <v>0</v>
+      </c>
+      <c r="R378">
+        <v>0</v>
+      </c>
+      <c r="S378">
+        <v>1</v>
+      </c>
+      <c r="T378">
+        <v>0</v>
+      </c>
+      <c r="U378">
+        <v>3</v>
+      </c>
+      <c r="V378">
+        <v>0</v>
+      </c>
+      <c r="W378">
+        <v>1</v>
+      </c>
+      <c r="X378">
+        <v>6</v>
+      </c>
+      <c r="Y378">
+        <v>1</v>
+      </c>
+      <c r="Z378">
+        <v>2</v>
+      </c>
+      <c r="AA378">
+        <v>0</v>
+      </c>
+      <c r="AB378">
+        <v>0</v>
+      </c>
+      <c r="AC378">
+        <v>0</v>
+      </c>
+      <c r="AD378">
+        <v>0</v>
+      </c>
+      <c r="AE378">
+        <v>0</v>
+      </c>
+      <c r="AF378">
+        <v>4</v>
+      </c>
+      <c r="AG378">
+        <v>0</v>
+      </c>
+      <c r="AH378">
+        <v>0</v>
+      </c>
+      <c r="AI378">
+        <v>0</v>
+      </c>
+      <c r="AJ378">
+        <v>0</v>
+      </c>
+      <c r="AK378">
+        <v>1</v>
+      </c>
+      <c r="AL378">
+        <v>0</v>
+      </c>
+      <c r="AM378">
+        <v>0</v>
+      </c>
+      <c r="AN378">
+        <v>0</v>
+      </c>
+      <c r="AO378">
+        <v>3</v>
+      </c>
+      <c r="AP378">
+        <v>0</v>
+      </c>
+      <c r="AQ378">
+        <v>1</v>
+      </c>
+      <c r="AR378">
+        <v>1</v>
+      </c>
+      <c r="AS378">
+        <v>2</v>
+      </c>
+      <c r="AT378">
+        <v>5</v>
+      </c>
+      <c r="AU378">
+        <v>0</v>
+      </c>
+      <c r="AV378">
+        <v>0</v>
+      </c>
+      <c r="AW378">
+        <v>1</v>
+      </c>
+      <c r="AX378">
+        <v>0</v>
+      </c>
+      <c r="AY378">
+        <v>0</v>
+      </c>
+      <c r="AZ378">
+        <v>0</v>
+      </c>
+      <c r="BA378">
+        <v>1</v>
+      </c>
+      <c r="BB378">
+        <v>3</v>
+      </c>
+      <c r="BC378">
+        <v>0</v>
+      </c>
+      <c r="BD378">
+        <v>0</v>
+      </c>
+      <c r="BE378">
+        <v>2</v>
+      </c>
+      <c r="BF378">
+        <v>0</v>
+      </c>
+      <c r="BG378">
+        <v>2</v>
+      </c>
+      <c r="BH378">
+        <v>0</v>
+      </c>
+      <c r="BI378">
+        <v>0</v>
+      </c>
+      <c r="BJ378">
+        <v>1</v>
+      </c>
+      <c r="BK378">
+        <v>0</v>
+      </c>
+      <c r="BL378">
+        <v>1</v>
+      </c>
+      <c r="BM378">
+        <v>0</v>
+      </c>
+      <c r="BN378">
+        <v>0</v>
+      </c>
+      <c r="BO378">
+        <v>0</v>
+      </c>
+      <c r="BP378">
+        <v>0</v>
+      </c>
+      <c r="BQ378">
+        <v>0</v>
+      </c>
+      <c r="BR378">
+        <v>0</v>
+      </c>
+      <c r="BS378">
+        <v>1</v>
+      </c>
+      <c r="BT378">
+        <v>0</v>
+      </c>
+      <c r="BU378">
+        <v>1</v>
+      </c>
+      <c r="BV378">
+        <v>1</v>
+      </c>
+      <c r="BW378">
+        <v>0</v>
+      </c>
+      <c r="BX378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A379" s="2">
+        <v>44454</v>
+      </c>
+      <c r="B379">
+        <v>7</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+      <c r="E379">
+        <v>0</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+      <c r="G379">
+        <v>0</v>
+      </c>
+      <c r="H379">
+        <v>0</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379">
+        <v>0</v>
+      </c>
+      <c r="L379">
+        <v>0</v>
+      </c>
+      <c r="M379">
+        <v>0</v>
+      </c>
+      <c r="N379">
+        <v>0</v>
+      </c>
+      <c r="O379">
+        <v>0</v>
+      </c>
+      <c r="P379">
+        <v>0</v>
+      </c>
+      <c r="Q379">
+        <v>0</v>
+      </c>
+      <c r="R379">
+        <v>0</v>
+      </c>
+      <c r="S379">
+        <v>1</v>
+      </c>
+      <c r="T379">
+        <v>1</v>
+      </c>
+      <c r="U379">
+        <v>3</v>
+      </c>
+      <c r="V379">
+        <v>0</v>
+      </c>
+      <c r="W379">
+        <v>6</v>
+      </c>
+      <c r="X379">
+        <v>3</v>
+      </c>
+      <c r="Y379">
+        <v>0</v>
+      </c>
+      <c r="Z379">
+        <v>0</v>
+      </c>
+      <c r="AA379">
+        <v>0</v>
+      </c>
+      <c r="AB379">
+        <v>0</v>
+      </c>
+      <c r="AC379">
+        <v>1</v>
+      </c>
+      <c r="AD379">
+        <v>1</v>
+      </c>
+      <c r="AE379">
+        <v>0</v>
+      </c>
+      <c r="AF379">
+        <v>1</v>
+      </c>
+      <c r="AG379">
+        <v>0</v>
+      </c>
+      <c r="AH379">
+        <v>1</v>
+      </c>
+      <c r="AI379">
+        <v>2</v>
+      </c>
+      <c r="AJ379">
+        <v>1</v>
+      </c>
+      <c r="AK379">
+        <v>0</v>
+      </c>
+      <c r="AL379">
+        <v>0</v>
+      </c>
+      <c r="AM379">
+        <v>0</v>
+      </c>
+      <c r="AN379">
+        <v>0</v>
+      </c>
+      <c r="AO379">
+        <v>3</v>
+      </c>
+      <c r="AP379">
+        <v>1</v>
+      </c>
+      <c r="AQ379">
+        <v>2</v>
+      </c>
+      <c r="AR379">
+        <v>1</v>
+      </c>
+      <c r="AS379">
+        <v>1</v>
+      </c>
+      <c r="AT379">
+        <v>0</v>
+      </c>
+      <c r="AU379">
+        <v>0</v>
+      </c>
+      <c r="AV379">
+        <v>0</v>
+      </c>
+      <c r="AW379">
+        <v>1</v>
+      </c>
+      <c r="AX379">
+        <v>1</v>
+      </c>
+      <c r="AY379">
+        <v>0</v>
+      </c>
+      <c r="AZ379">
+        <v>0</v>
+      </c>
+      <c r="BA379">
+        <v>1</v>
+      </c>
+      <c r="BB379">
+        <v>2</v>
+      </c>
+      <c r="BC379">
+        <v>0</v>
+      </c>
+      <c r="BD379">
+        <v>0</v>
+      </c>
+      <c r="BE379">
+        <v>0</v>
+      </c>
+      <c r="BF379">
+        <v>1</v>
+      </c>
+      <c r="BG379">
+        <v>1</v>
+      </c>
+      <c r="BH379">
+        <v>1</v>
+      </c>
+      <c r="BI379">
+        <v>0</v>
+      </c>
+      <c r="BJ379">
+        <v>0</v>
+      </c>
+      <c r="BK379">
+        <v>0</v>
+      </c>
+      <c r="BL379">
+        <v>0</v>
+      </c>
+      <c r="BM379">
+        <v>0</v>
+      </c>
+      <c r="BN379">
+        <v>0</v>
+      </c>
+      <c r="BO379">
+        <v>1</v>
+      </c>
+      <c r="BP379">
+        <v>0</v>
+      </c>
+      <c r="BQ379">
+        <v>0</v>
+      </c>
+      <c r="BR379">
+        <v>0</v>
+      </c>
+      <c r="BS379">
+        <v>1</v>
+      </c>
+      <c r="BT379">
+        <v>0</v>
+      </c>
+      <c r="BU379">
+        <v>0</v>
+      </c>
+      <c r="BV379">
+        <v>0</v>
+      </c>
+      <c r="BW379">
+        <v>0</v>
+      </c>
+      <c r="BX379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A380" s="2">
+        <v>44455</v>
+      </c>
+      <c r="B380">
+        <v>6</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380">
+        <v>2</v>
+      </c>
+      <c r="F380">
+        <v>1</v>
+      </c>
+      <c r="G380">
+        <v>0</v>
+      </c>
+      <c r="H380">
+        <v>1</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>2</v>
+      </c>
+      <c r="L380">
+        <v>0</v>
+      </c>
+      <c r="M380">
+        <v>2</v>
+      </c>
+      <c r="N380">
+        <v>1</v>
+      </c>
+      <c r="O380">
+        <v>0</v>
+      </c>
+      <c r="P380">
+        <v>0</v>
+      </c>
+      <c r="Q380">
+        <v>0</v>
+      </c>
+      <c r="R380">
+        <v>0</v>
+      </c>
+      <c r="S380">
+        <v>3</v>
+      </c>
+      <c r="T380">
+        <v>1</v>
+      </c>
+      <c r="U380">
+        <v>2</v>
+      </c>
+      <c r="V380">
+        <v>0</v>
+      </c>
+      <c r="W380">
+        <v>2</v>
+      </c>
+      <c r="X380">
+        <v>3</v>
+      </c>
+      <c r="Y380">
+        <v>0</v>
+      </c>
+      <c r="Z380">
+        <v>2</v>
+      </c>
+      <c r="AA380">
+        <v>0</v>
+      </c>
+      <c r="AB380">
+        <v>1</v>
+      </c>
+      <c r="AC380">
+        <v>1</v>
+      </c>
+      <c r="AD380">
+        <v>1</v>
+      </c>
+      <c r="AE380">
+        <v>0</v>
+      </c>
+      <c r="AF380">
+        <v>3</v>
+      </c>
+      <c r="AG380">
+        <v>0</v>
+      </c>
+      <c r="AH380">
+        <v>0</v>
+      </c>
+      <c r="AI380">
+        <v>0</v>
+      </c>
+      <c r="AJ380">
+        <v>0</v>
+      </c>
+      <c r="AK380">
+        <v>0</v>
+      </c>
+      <c r="AL380">
+        <v>0</v>
+      </c>
+      <c r="AM380">
+        <v>0</v>
+      </c>
+      <c r="AN380">
+        <v>0</v>
+      </c>
+      <c r="AO380">
+        <v>3</v>
+      </c>
+      <c r="AP380">
+        <v>0</v>
+      </c>
+      <c r="AQ380">
+        <v>0</v>
+      </c>
+      <c r="AR380">
+        <v>0</v>
+      </c>
+      <c r="AS380">
+        <v>1</v>
+      </c>
+      <c r="AT380">
+        <v>0</v>
+      </c>
+      <c r="AU380">
+        <v>0</v>
+      </c>
+      <c r="AV380">
+        <v>1</v>
+      </c>
+      <c r="AW380">
+        <v>1</v>
+      </c>
+      <c r="AX380">
+        <v>0</v>
+      </c>
+      <c r="AY380">
+        <v>0</v>
+      </c>
+      <c r="AZ380">
+        <v>0</v>
+      </c>
+      <c r="BA380">
+        <v>1</v>
+      </c>
+      <c r="BB380">
+        <v>2</v>
+      </c>
+      <c r="BC380">
+        <v>0</v>
+      </c>
+      <c r="BD380">
+        <v>0</v>
+      </c>
+      <c r="BE380">
+        <v>0</v>
+      </c>
+      <c r="BF380">
+        <v>1</v>
+      </c>
+      <c r="BG380">
+        <v>0</v>
+      </c>
+      <c r="BH380">
+        <v>0</v>
+      </c>
+      <c r="BI380">
+        <v>0</v>
+      </c>
+      <c r="BJ380">
+        <v>1</v>
+      </c>
+      <c r="BK380">
+        <v>0</v>
+      </c>
+      <c r="BL380">
+        <v>0</v>
+      </c>
+      <c r="BM380">
+        <v>0</v>
+      </c>
+      <c r="BN380">
+        <v>0</v>
+      </c>
+      <c r="BO380">
+        <v>0</v>
+      </c>
+      <c r="BP380">
+        <v>0</v>
+      </c>
+      <c r="BQ380">
+        <v>0</v>
+      </c>
+      <c r="BR380">
+        <v>0</v>
+      </c>
+      <c r="BS380">
+        <v>0</v>
+      </c>
+      <c r="BT380">
+        <v>1</v>
+      </c>
+      <c r="BU380">
+        <v>0</v>
+      </c>
+      <c r="BV380">
+        <v>0</v>
+      </c>
+      <c r="BW380">
+        <v>0</v>
+      </c>
+      <c r="BX380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A381" s="2">
+        <v>44456</v>
+      </c>
+      <c r="B381">
+        <v>4</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381">
+        <v>2</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381">
+        <v>0</v>
+      </c>
+      <c r="H381">
+        <v>1</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>1</v>
+      </c>
+      <c r="L381">
+        <v>1</v>
+      </c>
+      <c r="M381">
+        <v>4</v>
+      </c>
+      <c r="N381">
+        <v>1</v>
+      </c>
+      <c r="O381">
+        <v>0</v>
+      </c>
+      <c r="P381">
+        <v>2</v>
+      </c>
+      <c r="Q381">
+        <v>0</v>
+      </c>
+      <c r="R381">
+        <v>0</v>
+      </c>
+      <c r="S381">
+        <v>1</v>
+      </c>
+      <c r="T381">
+        <v>1</v>
+      </c>
+      <c r="U381">
+        <v>3</v>
+      </c>
+      <c r="V381">
+        <v>0</v>
+      </c>
+      <c r="W381">
+        <v>4</v>
+      </c>
+      <c r="X381">
+        <v>1</v>
+      </c>
+      <c r="Y381">
+        <v>0</v>
+      </c>
+      <c r="Z381">
+        <v>3</v>
+      </c>
+      <c r="AA381">
+        <v>0</v>
+      </c>
+      <c r="AB381">
+        <v>0</v>
+      </c>
+      <c r="AC381">
+        <v>0</v>
+      </c>
+      <c r="AD381">
+        <v>0</v>
+      </c>
+      <c r="AE381">
+        <v>0</v>
+      </c>
+      <c r="AF381">
+        <v>4</v>
+      </c>
+      <c r="AG381">
+        <v>0</v>
+      </c>
+      <c r="AH381">
+        <v>0</v>
+      </c>
+      <c r="AI381">
+        <v>0</v>
+      </c>
+      <c r="AJ381">
+        <v>0</v>
+      </c>
+      <c r="AK381">
+        <v>1</v>
+      </c>
+      <c r="AL381">
+        <v>0</v>
+      </c>
+      <c r="AM381">
+        <v>0</v>
+      </c>
+      <c r="AN381">
+        <v>1</v>
+      </c>
+      <c r="AO381">
+        <v>1</v>
+      </c>
+      <c r="AP381">
+        <v>0</v>
+      </c>
+      <c r="AQ381">
+        <v>1</v>
+      </c>
+      <c r="AR381">
+        <v>1</v>
+      </c>
+      <c r="AS381">
+        <v>1</v>
+      </c>
+      <c r="AT381">
+        <v>1</v>
+      </c>
+      <c r="AU381">
+        <v>0</v>
+      </c>
+      <c r="AV381">
+        <v>0</v>
+      </c>
+      <c r="AW381">
+        <v>1</v>
+      </c>
+      <c r="AX381">
+        <v>0</v>
+      </c>
+      <c r="AY381">
+        <v>0</v>
+      </c>
+      <c r="AZ381">
+        <v>0</v>
+      </c>
+      <c r="BA381">
+        <v>0</v>
+      </c>
+      <c r="BB381">
+        <v>2</v>
+      </c>
+      <c r="BC381">
+        <v>1</v>
+      </c>
+      <c r="BD381">
+        <v>2</v>
+      </c>
+      <c r="BE381">
+        <v>0</v>
+      </c>
+      <c r="BF381">
+        <v>2</v>
+      </c>
+      <c r="BG381">
+        <v>0</v>
+      </c>
+      <c r="BH381">
+        <v>1</v>
+      </c>
+      <c r="BI381">
+        <v>0</v>
+      </c>
+      <c r="BJ381">
+        <v>0</v>
+      </c>
+      <c r="BK381">
+        <v>0</v>
+      </c>
+      <c r="BL381">
+        <v>0</v>
+      </c>
+      <c r="BM381">
+        <v>0</v>
+      </c>
+      <c r="BN381">
+        <v>0</v>
+      </c>
+      <c r="BO381">
+        <v>1</v>
+      </c>
+      <c r="BP381">
+        <v>0</v>
+      </c>
+      <c r="BQ381">
+        <v>0</v>
+      </c>
+      <c r="BR381">
+        <v>0</v>
+      </c>
+      <c r="BS381">
+        <v>3</v>
+      </c>
+      <c r="BT381">
+        <v>0</v>
+      </c>
+      <c r="BU381">
+        <v>0</v>
+      </c>
+      <c r="BV381">
+        <v>0</v>
+      </c>
+      <c r="BW381">
+        <v>0</v>
+      </c>
+      <c r="BX381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A382" s="2">
+        <v>44457</v>
+      </c>
+      <c r="B382">
+        <v>12</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382">
+        <v>2</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+      <c r="H382">
+        <v>0</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
+        <v>0</v>
+      </c>
+      <c r="L382">
+        <v>0</v>
+      </c>
+      <c r="M382">
+        <v>0</v>
+      </c>
+      <c r="N382">
+        <v>0</v>
+      </c>
+      <c r="O382">
+        <v>0</v>
+      </c>
+      <c r="P382">
+        <v>0</v>
+      </c>
+      <c r="Q382">
+        <v>0</v>
+      </c>
+      <c r="R382">
+        <v>0</v>
+      </c>
+      <c r="S382">
+        <v>3</v>
+      </c>
+      <c r="T382">
+        <v>1</v>
+      </c>
+      <c r="U382">
+        <v>1</v>
+      </c>
+      <c r="V382">
+        <v>1</v>
+      </c>
+      <c r="W382">
+        <v>0</v>
+      </c>
+      <c r="X382">
+        <v>4</v>
+      </c>
+      <c r="Y382">
+        <v>0</v>
+      </c>
+      <c r="Z382">
+        <v>0</v>
+      </c>
+      <c r="AA382">
+        <v>0</v>
+      </c>
+      <c r="AB382">
+        <v>1</v>
+      </c>
+      <c r="AC382">
+        <v>0</v>
+      </c>
+      <c r="AD382">
+        <v>0</v>
+      </c>
+      <c r="AE382">
+        <v>0</v>
+      </c>
+      <c r="AF382">
+        <v>2</v>
+      </c>
+      <c r="AG382">
+        <v>0</v>
+      </c>
+      <c r="AH382">
+        <v>2</v>
+      </c>
+      <c r="AI382">
+        <v>0</v>
+      </c>
+      <c r="AJ382">
+        <v>0</v>
+      </c>
+      <c r="AK382">
+        <v>0</v>
+      </c>
+      <c r="AL382">
+        <v>0</v>
+      </c>
+      <c r="AM382">
+        <v>0</v>
+      </c>
+      <c r="AN382">
+        <v>1</v>
+      </c>
+      <c r="AO382">
+        <v>3</v>
+      </c>
+      <c r="AP382">
+        <v>0</v>
+      </c>
+      <c r="AQ382">
+        <v>1</v>
+      </c>
+      <c r="AR382">
+        <v>2</v>
+      </c>
+      <c r="AS382">
+        <v>0</v>
+      </c>
+      <c r="AT382">
+        <v>0</v>
+      </c>
+      <c r="AU382">
+        <v>0</v>
+      </c>
+      <c r="AV382">
+        <v>0</v>
+      </c>
+      <c r="AW382">
+        <v>0</v>
+      </c>
+      <c r="AX382">
+        <v>1</v>
+      </c>
+      <c r="AY382">
+        <v>1</v>
+      </c>
+      <c r="AZ382">
+        <v>1</v>
+      </c>
+      <c r="BA382">
+        <v>2</v>
+      </c>
+      <c r="BB382">
+        <v>2</v>
+      </c>
+      <c r="BC382">
+        <v>0</v>
+      </c>
+      <c r="BD382">
+        <v>0</v>
+      </c>
+      <c r="BE382">
+        <v>0</v>
+      </c>
+      <c r="BF382">
+        <v>1</v>
+      </c>
+      <c r="BG382">
+        <v>1</v>
+      </c>
+      <c r="BH382">
+        <v>0</v>
+      </c>
+      <c r="BI382">
+        <v>1</v>
+      </c>
+      <c r="BJ382">
+        <v>1</v>
+      </c>
+      <c r="BK382">
+        <v>1</v>
+      </c>
+      <c r="BL382">
+        <v>0</v>
+      </c>
+      <c r="BM382">
+        <v>0</v>
+      </c>
+      <c r="BN382">
+        <v>0</v>
+      </c>
+      <c r="BO382">
+        <v>0</v>
+      </c>
+      <c r="BP382">
+        <v>0</v>
+      </c>
+      <c r="BQ382">
+        <v>0</v>
+      </c>
+      <c r="BR382">
+        <v>0</v>
+      </c>
+      <c r="BS382">
+        <v>0</v>
+      </c>
+      <c r="BT382">
+        <v>0</v>
+      </c>
+      <c r="BU382">
+        <v>0</v>
+      </c>
+      <c r="BV382">
+        <v>0</v>
+      </c>
+      <c r="BW382">
+        <v>0</v>
+      </c>
+      <c r="BX382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A383" s="2">
+        <v>44458</v>
+      </c>
+      <c r="B383">
+        <v>8</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+      <c r="E383">
+        <v>0</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+      <c r="G383">
+        <v>0</v>
+      </c>
+      <c r="H383">
+        <v>0</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
+      <c r="K383">
+        <v>1</v>
+      </c>
+      <c r="L383">
+        <v>0</v>
+      </c>
+      <c r="M383">
+        <v>1</v>
+      </c>
+      <c r="N383">
+        <v>0</v>
+      </c>
+      <c r="O383">
+        <v>0</v>
+      </c>
+      <c r="P383">
+        <v>0</v>
+      </c>
+      <c r="Q383">
+        <v>0</v>
+      </c>
+      <c r="R383">
+        <v>0</v>
+      </c>
+      <c r="S383">
+        <v>2</v>
+      </c>
+      <c r="T383">
+        <v>2</v>
+      </c>
+      <c r="U383">
+        <v>0</v>
+      </c>
+      <c r="V383">
+        <v>1</v>
+      </c>
+      <c r="W383">
+        <v>0</v>
+      </c>
+      <c r="X383">
+        <v>2</v>
+      </c>
+      <c r="Y383">
+        <v>1</v>
+      </c>
+      <c r="Z383">
+        <v>1</v>
+      </c>
+      <c r="AA383">
+        <v>0</v>
+      </c>
+      <c r="AB383">
+        <v>0</v>
+      </c>
+      <c r="AC383">
+        <v>1</v>
+      </c>
+      <c r="AD383">
+        <v>0</v>
+      </c>
+      <c r="AE383">
+        <v>0</v>
+      </c>
+      <c r="AF383">
+        <v>1</v>
+      </c>
+      <c r="AG383">
+        <v>0</v>
+      </c>
+      <c r="AH383">
+        <v>0</v>
+      </c>
+      <c r="AI383">
+        <v>1</v>
+      </c>
+      <c r="AJ383">
+        <v>0</v>
+      </c>
+      <c r="AK383">
+        <v>0</v>
+      </c>
+      <c r="AL383">
+        <v>1</v>
+      </c>
+      <c r="AM383">
+        <v>0</v>
+      </c>
+      <c r="AN383">
+        <v>2</v>
+      </c>
+      <c r="AO383">
+        <v>1</v>
+      </c>
+      <c r="AP383">
+        <v>0</v>
+      </c>
+      <c r="AQ383">
+        <v>0</v>
+      </c>
+      <c r="AR383">
+        <v>1</v>
+      </c>
+      <c r="AS383">
+        <v>0</v>
+      </c>
+      <c r="AT383">
+        <v>0</v>
+      </c>
+      <c r="AU383">
+        <v>0</v>
+      </c>
+      <c r="AV383">
+        <v>0</v>
+      </c>
+      <c r="AW383">
+        <v>1</v>
+      </c>
+      <c r="AX383">
+        <v>0</v>
+      </c>
+      <c r="AY383">
+        <v>0</v>
+      </c>
+      <c r="AZ383">
+        <v>0</v>
+      </c>
+      <c r="BA383">
+        <v>0</v>
+      </c>
+      <c r="BB383">
+        <v>0</v>
+      </c>
+      <c r="BC383">
+        <v>0</v>
+      </c>
+      <c r="BD383">
+        <v>2</v>
+      </c>
+      <c r="BE383">
+        <v>0</v>
+      </c>
+      <c r="BF383">
+        <v>1</v>
+      </c>
+      <c r="BG383">
+        <v>1</v>
+      </c>
+      <c r="BH383">
+        <v>1</v>
+      </c>
+      <c r="BI383">
+        <v>0</v>
+      </c>
+      <c r="BJ383">
+        <v>0</v>
+      </c>
+      <c r="BK383">
+        <v>0</v>
+      </c>
+      <c r="BL383">
+        <v>0</v>
+      </c>
+      <c r="BM383">
+        <v>0</v>
+      </c>
+      <c r="BN383">
+        <v>0</v>
+      </c>
+      <c r="BO383">
+        <v>0</v>
+      </c>
+      <c r="BP383">
+        <v>0</v>
+      </c>
+      <c r="BQ383">
+        <v>0</v>
+      </c>
+      <c r="BR383">
+        <v>0</v>
+      </c>
+      <c r="BS383">
+        <v>0</v>
+      </c>
+      <c r="BT383">
+        <v>1</v>
+      </c>
+      <c r="BU383">
+        <v>0</v>
+      </c>
+      <c r="BV383">
+        <v>0</v>
+      </c>
+      <c r="BW383">
+        <v>0</v>
+      </c>
+      <c r="BX383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A384" s="2">
+        <v>44459</v>
+      </c>
+      <c r="B384">
+        <v>10</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+      <c r="E384">
+        <v>0</v>
+      </c>
+      <c r="F384">
+        <v>0</v>
+      </c>
+      <c r="G384">
+        <v>0</v>
+      </c>
+      <c r="H384">
+        <v>0</v>
+      </c>
+      <c r="I384">
+        <v>1</v>
+      </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
+      <c r="K384">
+        <v>0</v>
+      </c>
+      <c r="L384">
+        <v>0</v>
+      </c>
+      <c r="M384">
+        <v>2</v>
+      </c>
+      <c r="N384">
+        <v>1</v>
+      </c>
+      <c r="O384">
+        <v>1</v>
+      </c>
+      <c r="P384">
+        <v>1</v>
+      </c>
+      <c r="Q384">
+        <v>0</v>
+      </c>
+      <c r="R384">
+        <v>0</v>
+      </c>
+      <c r="S384">
+        <v>2</v>
+      </c>
+      <c r="T384">
+        <v>1</v>
+      </c>
+      <c r="U384">
+        <v>2</v>
+      </c>
+      <c r="V384">
+        <v>0</v>
+      </c>
+      <c r="W384">
+        <v>8</v>
+      </c>
+      <c r="X384">
+        <v>4</v>
+      </c>
+      <c r="Y384">
+        <v>2</v>
+      </c>
+      <c r="Z384">
+        <v>0</v>
+      </c>
+      <c r="AA384">
+        <v>0</v>
+      </c>
+      <c r="AB384">
+        <v>1</v>
+      </c>
+      <c r="AC384">
+        <v>1</v>
+      </c>
+      <c r="AD384">
+        <v>0</v>
+      </c>
+      <c r="AE384">
+        <v>0</v>
+      </c>
+      <c r="AF384">
+        <v>0</v>
+      </c>
+      <c r="AG384">
+        <v>1</v>
+      </c>
+      <c r="AH384">
+        <v>1</v>
+      </c>
+      <c r="AI384">
+        <v>0</v>
+      </c>
+      <c r="AJ384">
+        <v>0</v>
+      </c>
+      <c r="AK384">
+        <v>0</v>
+      </c>
+      <c r="AL384">
+        <v>0</v>
+      </c>
+      <c r="AM384">
+        <v>0</v>
+      </c>
+      <c r="AN384">
+        <v>1</v>
+      </c>
+      <c r="AO384">
+        <v>3</v>
+      </c>
+      <c r="AP384">
+        <v>0</v>
+      </c>
+      <c r="AQ384">
+        <v>0</v>
+      </c>
+      <c r="AR384">
+        <v>0</v>
+      </c>
+      <c r="AS384">
+        <v>0</v>
+      </c>
+      <c r="AT384">
+        <v>1</v>
+      </c>
+      <c r="AU384">
+        <v>0</v>
+      </c>
+      <c r="AV384">
+        <v>0</v>
+      </c>
+      <c r="AW384">
+        <v>0</v>
+      </c>
+      <c r="AX384">
+        <v>0</v>
+      </c>
+      <c r="AY384">
+        <v>0</v>
+      </c>
+      <c r="AZ384">
+        <v>1</v>
+      </c>
+      <c r="BA384">
+        <v>0</v>
+      </c>
+      <c r="BB384">
+        <v>1</v>
+      </c>
+      <c r="BC384">
+        <v>0</v>
+      </c>
+      <c r="BD384">
+        <v>0</v>
+      </c>
+      <c r="BE384">
+        <v>0</v>
+      </c>
+      <c r="BF384">
+        <v>0</v>
+      </c>
+      <c r="BG384">
+        <v>1</v>
+      </c>
+      <c r="BH384">
+        <v>0</v>
+      </c>
+      <c r="BI384">
+        <v>0</v>
+      </c>
+      <c r="BJ384">
+        <v>0</v>
+      </c>
+      <c r="BK384">
+        <v>0</v>
+      </c>
+      <c r="BL384">
+        <v>0</v>
+      </c>
+      <c r="BM384">
+        <v>0</v>
+      </c>
+      <c r="BN384">
+        <v>1</v>
+      </c>
+      <c r="BO384">
+        <v>0</v>
+      </c>
+      <c r="BP384">
+        <v>0</v>
+      </c>
+      <c r="BQ384">
+        <v>0</v>
+      </c>
+      <c r="BR384">
+        <v>0</v>
+      </c>
+      <c r="BS384">
+        <v>0</v>
+      </c>
+      <c r="BT384">
+        <v>0</v>
+      </c>
+      <c r="BU384">
+        <v>0</v>
+      </c>
+      <c r="BV384">
+        <v>0</v>
+      </c>
+      <c r="BW384">
+        <v>0</v>
+      </c>
+      <c r="BX384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A385" s="2">
+        <v>44460</v>
+      </c>
+      <c r="B385">
+        <v>6</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+      <c r="E385">
+        <v>0</v>
+      </c>
+      <c r="F385">
+        <v>1</v>
+      </c>
+      <c r="G385">
+        <v>0</v>
+      </c>
+      <c r="H385">
+        <v>2</v>
+      </c>
+      <c r="I385">
+        <v>0</v>
+      </c>
+      <c r="J385">
+        <v>1</v>
+      </c>
+      <c r="K385">
+        <v>1</v>
+      </c>
+      <c r="L385">
+        <v>1</v>
+      </c>
+      <c r="M385">
+        <v>1</v>
+      </c>
+      <c r="N385">
+        <v>1</v>
+      </c>
+      <c r="O385">
+        <v>0</v>
+      </c>
+      <c r="P385">
+        <v>0</v>
+      </c>
+      <c r="Q385">
+        <v>0</v>
+      </c>
+      <c r="R385">
+        <v>0</v>
+      </c>
+      <c r="S385">
+        <v>1</v>
+      </c>
+      <c r="T385">
+        <v>2</v>
+      </c>
+      <c r="U385">
+        <v>2</v>
+      </c>
+      <c r="V385">
+        <v>0</v>
+      </c>
+      <c r="W385">
+        <v>5</v>
+      </c>
+      <c r="X385">
+        <v>5</v>
+      </c>
+      <c r="Y385">
+        <v>1</v>
+      </c>
+      <c r="Z385">
+        <v>3</v>
+      </c>
+      <c r="AA385">
+        <v>0</v>
+      </c>
+      <c r="AB385">
+        <v>0</v>
+      </c>
+      <c r="AC385">
+        <v>0</v>
+      </c>
+      <c r="AD385">
+        <v>0</v>
+      </c>
+      <c r="AE385">
+        <v>0</v>
+      </c>
+      <c r="AF385">
+        <v>1</v>
+      </c>
+      <c r="AG385">
+        <v>0</v>
+      </c>
+      <c r="AH385">
+        <v>1</v>
+      </c>
+      <c r="AI385">
+        <v>0</v>
+      </c>
+      <c r="AJ385">
+        <v>0</v>
+      </c>
+      <c r="AK385">
+        <v>0</v>
+      </c>
+      <c r="AL385">
+        <v>0</v>
+      </c>
+      <c r="AM385">
+        <v>0</v>
+      </c>
+      <c r="AN385">
+        <v>0</v>
+      </c>
+      <c r="AO385">
+        <v>0</v>
+      </c>
+      <c r="AP385">
+        <v>0</v>
+      </c>
+      <c r="AQ385">
+        <v>1</v>
+      </c>
+      <c r="AR385">
+        <v>0</v>
+      </c>
+      <c r="AS385">
+        <v>0</v>
+      </c>
+      <c r="AT385">
+        <v>0</v>
+      </c>
+      <c r="AU385">
+        <v>0</v>
+      </c>
+      <c r="AV385">
+        <v>1</v>
+      </c>
+      <c r="AW385">
+        <v>0</v>
+      </c>
+      <c r="AX385">
+        <v>2</v>
+      </c>
+      <c r="AY385">
+        <v>0</v>
+      </c>
+      <c r="AZ385">
+        <v>0</v>
+      </c>
+      <c r="BA385">
+        <v>0</v>
+      </c>
+      <c r="BB385">
+        <v>1</v>
+      </c>
+      <c r="BC385">
+        <v>0</v>
+      </c>
+      <c r="BD385">
+        <v>1</v>
+      </c>
+      <c r="BE385">
+        <v>3</v>
+      </c>
+      <c r="BF385">
+        <v>1</v>
+      </c>
+      <c r="BG385">
+        <v>1</v>
+      </c>
+      <c r="BH385">
+        <v>1</v>
+      </c>
+      <c r="BI385">
+        <v>1</v>
+      </c>
+      <c r="BJ385">
+        <v>0</v>
+      </c>
+      <c r="BK385">
+        <v>1</v>
+      </c>
+      <c r="BL385">
+        <v>0</v>
+      </c>
+      <c r="BM385">
+        <v>0</v>
+      </c>
+      <c r="BN385">
+        <v>0</v>
+      </c>
+      <c r="BO385">
+        <v>0</v>
+      </c>
+      <c r="BP385">
+        <v>0</v>
+      </c>
+      <c r="BQ385">
+        <v>0</v>
+      </c>
+      <c r="BR385">
+        <v>0</v>
+      </c>
+      <c r="BS385">
+        <v>1</v>
+      </c>
+      <c r="BT385">
+        <v>0</v>
+      </c>
+      <c r="BU385">
+        <v>1</v>
+      </c>
+      <c r="BV385">
+        <v>0</v>
+      </c>
+      <c r="BW385">
+        <v>0</v>
+      </c>
+      <c r="BX385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A386" s="2">
+        <v>44461</v>
+      </c>
+      <c r="B386">
+        <v>3</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
+      <c r="D386">
+        <v>0</v>
+      </c>
+      <c r="E386">
+        <v>1</v>
+      </c>
+      <c r="F386">
+        <v>1</v>
+      </c>
+      <c r="G386">
+        <v>0</v>
+      </c>
+      <c r="H386">
+        <v>3</v>
+      </c>
+      <c r="I386">
+        <v>0</v>
+      </c>
+      <c r="J386">
+        <v>0</v>
+      </c>
+      <c r="K386">
+        <v>0</v>
+      </c>
+      <c r="L386">
+        <v>0</v>
+      </c>
+      <c r="M386">
+        <v>0</v>
+      </c>
+      <c r="N386">
+        <v>0</v>
+      </c>
+      <c r="O386">
+        <v>0</v>
+      </c>
+      <c r="P386">
+        <v>1</v>
+      </c>
+      <c r="Q386">
+        <v>0</v>
+      </c>
+      <c r="R386">
+        <v>0</v>
+      </c>
+      <c r="S386">
+        <v>3</v>
+      </c>
+      <c r="T386">
+        <v>1</v>
+      </c>
+      <c r="U386">
+        <v>0</v>
+      </c>
+      <c r="V386">
+        <v>1</v>
+      </c>
+      <c r="W386">
+        <v>2</v>
+      </c>
+      <c r="X386">
+        <v>2</v>
+      </c>
+      <c r="Y386">
+        <v>0</v>
+      </c>
+      <c r="Z386">
+        <v>0</v>
+      </c>
+      <c r="AA386">
+        <v>0</v>
+      </c>
+      <c r="AB386">
+        <v>0</v>
+      </c>
+      <c r="AC386">
+        <v>1</v>
+      </c>
+      <c r="AD386">
+        <v>0</v>
+      </c>
+      <c r="AE386">
+        <v>0</v>
+      </c>
+      <c r="AF386">
+        <v>1</v>
+      </c>
+      <c r="AG386">
+        <v>0</v>
+      </c>
+      <c r="AH386">
+        <v>2</v>
+      </c>
+      <c r="AI386">
+        <v>1</v>
+      </c>
+      <c r="AJ386">
+        <v>0</v>
+      </c>
+      <c r="AK386">
+        <v>0</v>
+      </c>
+      <c r="AL386">
+        <v>0</v>
+      </c>
+      <c r="AM386">
+        <v>0</v>
+      </c>
+      <c r="AN386">
+        <v>0</v>
+      </c>
+      <c r="AO386">
+        <v>2</v>
+      </c>
+      <c r="AP386">
+        <v>0</v>
+      </c>
+      <c r="AQ386">
+        <v>2</v>
+      </c>
+      <c r="AR386">
+        <v>1</v>
+      </c>
+      <c r="AS386">
+        <v>0</v>
+      </c>
+      <c r="AT386">
+        <v>1</v>
+      </c>
+      <c r="AU386">
+        <v>0</v>
+      </c>
+      <c r="AV386">
+        <v>0</v>
+      </c>
+      <c r="AW386">
+        <v>0</v>
+      </c>
+      <c r="AX386">
+        <v>0</v>
+      </c>
+      <c r="AY386">
+        <v>0</v>
+      </c>
+      <c r="AZ386">
+        <v>0</v>
+      </c>
+      <c r="BA386">
+        <v>0</v>
+      </c>
+      <c r="BB386">
+        <v>0</v>
+      </c>
+      <c r="BC386">
+        <v>0</v>
+      </c>
+      <c r="BD386">
+        <v>0</v>
+      </c>
+      <c r="BE386">
+        <v>0</v>
+      </c>
+      <c r="BF386">
+        <v>1</v>
+      </c>
+      <c r="BG386">
+        <v>1</v>
+      </c>
+      <c r="BH386">
+        <v>0</v>
+      </c>
+      <c r="BI386">
+        <v>0</v>
+      </c>
+      <c r="BJ386">
+        <v>0</v>
+      </c>
+      <c r="BK386">
+        <v>0</v>
+      </c>
+      <c r="BL386">
+        <v>0</v>
+      </c>
+      <c r="BM386">
+        <v>0</v>
+      </c>
+      <c r="BN386">
+        <v>0</v>
+      </c>
+      <c r="BO386">
+        <v>0</v>
+      </c>
+      <c r="BP386">
+        <v>0</v>
+      </c>
+      <c r="BQ386">
+        <v>0</v>
+      </c>
+      <c r="BR386">
+        <v>0</v>
+      </c>
+      <c r="BS386">
+        <v>0</v>
+      </c>
+      <c r="BT386">
+        <v>0</v>
+      </c>
+      <c r="BU386">
+        <v>0</v>
+      </c>
+      <c r="BV386">
+        <v>0</v>
+      </c>
+      <c r="BW386">
+        <v>0</v>
+      </c>
+      <c r="BX386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A387" s="2">
+        <v>44462</v>
+      </c>
+      <c r="B387">
+        <v>8</v>
+      </c>
+      <c r="C387">
+        <v>0</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
+      </c>
+      <c r="E387">
+        <v>2</v>
+      </c>
+      <c r="F387">
+        <v>0</v>
+      </c>
+      <c r="G387">
+        <v>0</v>
+      </c>
+      <c r="H387">
+        <v>0</v>
+      </c>
+      <c r="I387">
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <v>1</v>
+      </c>
+      <c r="K387">
+        <v>0</v>
+      </c>
+      <c r="L387">
+        <v>0</v>
+      </c>
+      <c r="M387">
+        <v>1</v>
+      </c>
+      <c r="N387">
+        <v>0</v>
+      </c>
+      <c r="O387">
+        <v>0</v>
+      </c>
+      <c r="P387">
+        <v>0</v>
+      </c>
+      <c r="Q387">
+        <v>0</v>
+      </c>
+      <c r="R387">
+        <v>0</v>
+      </c>
+      <c r="S387">
+        <v>2</v>
+      </c>
+      <c r="T387">
+        <v>0</v>
+      </c>
+      <c r="U387">
+        <v>2</v>
+      </c>
+      <c r="V387">
+        <v>0</v>
+      </c>
+      <c r="W387">
+        <v>1</v>
+      </c>
+      <c r="X387">
+        <v>4</v>
+      </c>
+      <c r="Y387">
+        <v>0</v>
+      </c>
+      <c r="Z387">
+        <v>1</v>
+      </c>
+      <c r="AA387">
+        <v>0</v>
+      </c>
+      <c r="AB387">
+        <v>0</v>
+      </c>
+      <c r="AC387">
+        <v>1</v>
+      </c>
+      <c r="AD387">
+        <v>1</v>
+      </c>
+      <c r="AE387">
+        <v>0</v>
+      </c>
+      <c r="AF387">
+        <v>1</v>
+      </c>
+      <c r="AG387">
+        <v>0</v>
+      </c>
+      <c r="AH387">
+        <v>2</v>
+      </c>
+      <c r="AI387">
+        <v>0</v>
+      </c>
+      <c r="AJ387">
+        <v>0</v>
+      </c>
+      <c r="AK387">
+        <v>0</v>
+      </c>
+      <c r="AL387">
+        <v>0</v>
+      </c>
+      <c r="AM387">
+        <v>0</v>
+      </c>
+      <c r="AN387">
+        <v>0</v>
+      </c>
+      <c r="AO387">
+        <v>1</v>
+      </c>
+      <c r="AP387">
+        <v>0</v>
+      </c>
+      <c r="AQ387">
+        <v>1</v>
+      </c>
+      <c r="AR387">
+        <v>0</v>
+      </c>
+      <c r="AS387">
+        <v>0</v>
+      </c>
+      <c r="AT387">
+        <v>1</v>
+      </c>
+      <c r="AU387">
+        <v>0</v>
+      </c>
+      <c r="AV387">
+        <v>0</v>
+      </c>
+      <c r="AW387">
+        <v>2</v>
+      </c>
+      <c r="AX387">
+        <v>0</v>
+      </c>
+      <c r="AY387">
+        <v>0</v>
+      </c>
+      <c r="AZ387">
+        <v>0</v>
+      </c>
+      <c r="BA387">
+        <v>0</v>
+      </c>
+      <c r="BB387">
+        <v>1</v>
+      </c>
+      <c r="BC387">
+        <v>0</v>
+      </c>
+      <c r="BD387">
+        <v>0</v>
+      </c>
+      <c r="BE387">
+        <v>0</v>
+      </c>
+      <c r="BF387">
+        <v>1</v>
+      </c>
+      <c r="BG387">
+        <v>0</v>
+      </c>
+      <c r="BH387">
+        <v>1</v>
+      </c>
+      <c r="BI387">
+        <v>0</v>
+      </c>
+      <c r="BJ387">
+        <v>0</v>
+      </c>
+      <c r="BK387">
+        <v>0</v>
+      </c>
+      <c r="BL387">
+        <v>0</v>
+      </c>
+      <c r="BM387">
+        <v>0</v>
+      </c>
+      <c r="BN387">
+        <v>0</v>
+      </c>
+      <c r="BO387">
+        <v>0</v>
+      </c>
+      <c r="BP387">
+        <v>0</v>
+      </c>
+      <c r="BQ387">
+        <v>0</v>
+      </c>
+      <c r="BR387">
+        <v>0</v>
+      </c>
+      <c r="BS387">
+        <v>0</v>
+      </c>
+      <c r="BT387">
+        <v>0</v>
+      </c>
+      <c r="BU387">
+        <v>1</v>
+      </c>
+      <c r="BV387">
+        <v>0</v>
+      </c>
+      <c r="BW387">
+        <v>0</v>
+      </c>
+      <c r="BX387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A388" s="2">
+        <v>44463</v>
+      </c>
+      <c r="B388">
+        <v>6</v>
+      </c>
+      <c r="C388">
+        <v>0</v>
+      </c>
+      <c r="D388">
+        <v>0</v>
+      </c>
+      <c r="E388">
+        <v>0</v>
+      </c>
+      <c r="F388">
+        <v>0</v>
+      </c>
+      <c r="G388">
+        <v>0</v>
+      </c>
+      <c r="H388">
+        <v>0</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>0</v>
+      </c>
+      <c r="K388">
+        <v>0</v>
+      </c>
+      <c r="L388">
+        <v>1</v>
+      </c>
+      <c r="M388">
+        <v>2</v>
+      </c>
+      <c r="N388">
+        <v>0</v>
+      </c>
+      <c r="O388">
+        <v>0</v>
+      </c>
+      <c r="P388">
+        <v>1</v>
+      </c>
+      <c r="Q388">
+        <v>0</v>
+      </c>
+      <c r="R388">
+        <v>0</v>
+      </c>
+      <c r="S388">
+        <v>0</v>
+      </c>
+      <c r="T388">
+        <v>1</v>
+      </c>
+      <c r="U388">
+        <v>0</v>
+      </c>
+      <c r="V388">
+        <v>0</v>
+      </c>
+      <c r="W388">
+        <v>0</v>
+      </c>
+      <c r="X388">
+        <v>5</v>
+      </c>
+      <c r="Y388">
+        <v>0</v>
+      </c>
+      <c r="Z388">
+        <v>3</v>
+      </c>
+      <c r="AA388">
+        <v>0</v>
+      </c>
+      <c r="AB388">
+        <v>0</v>
+      </c>
+      <c r="AC388">
+        <v>0</v>
+      </c>
+      <c r="AD388">
+        <v>0</v>
+      </c>
+      <c r="AE388">
+        <v>0</v>
+      </c>
+      <c r="AF388">
+        <v>1</v>
+      </c>
+      <c r="AG388">
+        <v>1</v>
+      </c>
+      <c r="AH388">
+        <v>0</v>
+      </c>
+      <c r="AI388">
+        <v>0</v>
+      </c>
+      <c r="AJ388">
+        <v>0</v>
+      </c>
+      <c r="AK388">
+        <v>1</v>
+      </c>
+      <c r="AL388">
+        <v>0</v>
+      </c>
+      <c r="AM388">
+        <v>0</v>
+      </c>
+      <c r="AN388">
+        <v>0</v>
+      </c>
+      <c r="AO388">
+        <v>0</v>
+      </c>
+      <c r="AP388">
+        <v>0</v>
+      </c>
+      <c r="AQ388">
+        <v>0</v>
+      </c>
+      <c r="AR388">
+        <v>0</v>
+      </c>
+      <c r="AS388">
+        <v>0</v>
+      </c>
+      <c r="AT388">
+        <v>0</v>
+      </c>
+      <c r="AU388">
+        <v>0</v>
+      </c>
+      <c r="AV388">
+        <v>0</v>
+      </c>
+      <c r="AW388">
+        <v>1</v>
+      </c>
+      <c r="AX388">
+        <v>0</v>
+      </c>
+      <c r="AY388">
+        <v>0</v>
+      </c>
+      <c r="AZ388">
+        <v>0</v>
+      </c>
+      <c r="BA388">
+        <v>0</v>
+      </c>
+      <c r="BB388">
+        <v>1</v>
+      </c>
+      <c r="BC388">
+        <v>0</v>
+      </c>
+      <c r="BD388">
+        <v>0</v>
+      </c>
+      <c r="BE388">
+        <v>0</v>
+      </c>
+      <c r="BF388">
+        <v>1</v>
+      </c>
+      <c r="BG388">
+        <v>0</v>
+      </c>
+      <c r="BH388">
+        <v>1</v>
+      </c>
+      <c r="BI388">
+        <v>0</v>
+      </c>
+      <c r="BJ388">
+        <v>0</v>
+      </c>
+      <c r="BK388">
+        <v>0</v>
+      </c>
+      <c r="BL388">
+        <v>0</v>
+      </c>
+      <c r="BM388">
+        <v>0</v>
+      </c>
+      <c r="BN388">
+        <v>0</v>
+      </c>
+      <c r="BO388">
+        <v>0</v>
+      </c>
+      <c r="BP388">
+        <v>0</v>
+      </c>
+      <c r="BQ388">
+        <v>0</v>
+      </c>
+      <c r="BR388">
+        <v>0</v>
+      </c>
+      <c r="BS388">
+        <v>0</v>
+      </c>
+      <c r="BT388">
+        <v>0</v>
+      </c>
+      <c r="BU388">
+        <v>0</v>
+      </c>
+      <c r="BV388">
+        <v>0</v>
+      </c>
+      <c r="BW388">
+        <v>0</v>
+      </c>
+      <c r="BX388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A389" s="2">
+        <v>44464</v>
+      </c>
+      <c r="B389">
+        <v>6</v>
+      </c>
+      <c r="C389">
+        <v>0</v>
+      </c>
+      <c r="D389">
+        <v>0</v>
+      </c>
+      <c r="E389">
+        <v>0</v>
+      </c>
+      <c r="F389">
+        <v>0</v>
+      </c>
+      <c r="G389">
+        <v>0</v>
+      </c>
+      <c r="H389">
+        <v>2</v>
+      </c>
+      <c r="I389">
+        <v>0</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+      <c r="K389">
+        <v>0</v>
+      </c>
+      <c r="L389">
+        <v>0</v>
+      </c>
+      <c r="M389">
+        <v>3</v>
+      </c>
+      <c r="N389">
+        <v>0</v>
+      </c>
+      <c r="O389">
+        <v>0</v>
+      </c>
+      <c r="P389">
+        <v>0</v>
+      </c>
+      <c r="Q389">
+        <v>0</v>
+      </c>
+      <c r="R389">
+        <v>0</v>
+      </c>
+      <c r="S389">
+        <v>0</v>
+      </c>
+      <c r="T389">
+        <v>0</v>
+      </c>
+      <c r="U389">
+        <v>1</v>
+      </c>
+      <c r="V389">
+        <v>0</v>
+      </c>
+      <c r="W389">
+        <v>3</v>
+      </c>
+      <c r="X389">
+        <v>1</v>
+      </c>
+      <c r="Y389">
+        <v>0</v>
+      </c>
+      <c r="Z389">
+        <v>3</v>
+      </c>
+      <c r="AA389">
+        <v>0</v>
+      </c>
+      <c r="AB389">
+        <v>0</v>
+      </c>
+      <c r="AC389">
+        <v>0</v>
+      </c>
+      <c r="AD389">
+        <v>0</v>
+      </c>
+      <c r="AE389">
+        <v>0</v>
+      </c>
+      <c r="AF389">
+        <v>2</v>
+      </c>
+      <c r="AG389">
+        <v>0</v>
+      </c>
+      <c r="AH389">
+        <v>0</v>
+      </c>
+      <c r="AI389">
+        <v>0</v>
+      </c>
+      <c r="AJ389">
+        <v>0</v>
+      </c>
+      <c r="AK389">
+        <v>0</v>
+      </c>
+      <c r="AL389">
+        <v>0</v>
+      </c>
+      <c r="AM389">
+        <v>0</v>
+      </c>
+      <c r="AN389">
+        <v>0</v>
+      </c>
+      <c r="AO389">
+        <v>0</v>
+      </c>
+      <c r="AP389">
+        <v>0</v>
+      </c>
+      <c r="AQ389">
+        <v>1</v>
+      </c>
+      <c r="AR389">
+        <v>0</v>
+      </c>
+      <c r="AS389">
+        <v>0</v>
+      </c>
+      <c r="AT389">
+        <v>0</v>
+      </c>
+      <c r="AU389">
+        <v>0</v>
+      </c>
+      <c r="AV389">
+        <v>0</v>
+      </c>
+      <c r="AW389">
+        <v>0</v>
+      </c>
+      <c r="AX389">
+        <v>0</v>
+      </c>
+      <c r="AY389">
+        <v>0</v>
+      </c>
+      <c r="AZ389">
+        <v>0</v>
+      </c>
+      <c r="BA389">
+        <v>0</v>
+      </c>
+      <c r="BB389">
+        <v>1</v>
+      </c>
+      <c r="BC389">
+        <v>0</v>
+      </c>
+      <c r="BD389">
+        <v>3</v>
+      </c>
+      <c r="BE389">
+        <v>1</v>
+      </c>
+      <c r="BF389">
+        <v>1</v>
+      </c>
+      <c r="BG389">
+        <v>0</v>
+      </c>
+      <c r="BH389">
+        <v>0</v>
+      </c>
+      <c r="BI389">
+        <v>0</v>
+      </c>
+      <c r="BJ389">
+        <v>1</v>
+      </c>
+      <c r="BK389">
+        <v>0</v>
+      </c>
+      <c r="BL389">
+        <v>0</v>
+      </c>
+      <c r="BM389">
+        <v>0</v>
+      </c>
+      <c r="BN389">
+        <v>0</v>
+      </c>
+      <c r="BO389">
+        <v>0</v>
+      </c>
+      <c r="BP389">
+        <v>0</v>
+      </c>
+      <c r="BQ389">
+        <v>0</v>
+      </c>
+      <c r="BR389">
+        <v>0</v>
+      </c>
+      <c r="BS389">
+        <v>1</v>
+      </c>
+      <c r="BT389">
+        <v>0</v>
+      </c>
+      <c r="BU389">
+        <v>0</v>
+      </c>
+      <c r="BV389">
+        <v>0</v>
+      </c>
+      <c r="BW389">
+        <v>0</v>
+      </c>
+      <c r="BX389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A390" s="2">
+        <v>44465</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+      <c r="C390">
+        <v>0</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+      <c r="E390">
+        <v>2</v>
+      </c>
+      <c r="F390">
+        <v>1</v>
+      </c>
+      <c r="G390">
+        <v>0</v>
+      </c>
+      <c r="H390">
+        <v>1</v>
+      </c>
+      <c r="I390">
+        <v>0</v>
+      </c>
+      <c r="J390">
+        <v>0</v>
+      </c>
+      <c r="K390">
+        <v>0</v>
+      </c>
+      <c r="L390">
+        <v>0</v>
+      </c>
+      <c r="M390">
+        <v>3</v>
+      </c>
+      <c r="N390">
+        <v>0</v>
+      </c>
+      <c r="O390">
+        <v>0</v>
+      </c>
+      <c r="P390">
+        <v>0</v>
+      </c>
+      <c r="Q390">
+        <v>0</v>
+      </c>
+      <c r="R390">
+        <v>0</v>
+      </c>
+      <c r="S390">
+        <v>1</v>
+      </c>
+      <c r="T390">
+        <v>1</v>
+      </c>
+      <c r="U390">
+        <v>1</v>
+      </c>
+      <c r="V390">
+        <v>1</v>
+      </c>
+      <c r="W390">
+        <v>0</v>
+      </c>
+      <c r="X390">
+        <v>6</v>
+      </c>
+      <c r="Y390">
+        <v>0</v>
+      </c>
+      <c r="Z390">
+        <v>2</v>
+      </c>
+      <c r="AA390">
+        <v>0</v>
+      </c>
+      <c r="AB390">
+        <v>1</v>
+      </c>
+      <c r="AC390">
+        <v>0</v>
+      </c>
+      <c r="AD390">
+        <v>0</v>
+      </c>
+      <c r="AE390">
+        <v>0</v>
+      </c>
+      <c r="AF390">
+        <v>1</v>
+      </c>
+      <c r="AG390">
+        <v>0</v>
+      </c>
+      <c r="AH390">
+        <v>4</v>
+      </c>
+      <c r="AI390">
+        <v>0</v>
+      </c>
+      <c r="AJ390">
+        <v>0</v>
+      </c>
+      <c r="AK390">
+        <v>0</v>
+      </c>
+      <c r="AL390">
+        <v>0</v>
+      </c>
+      <c r="AM390">
+        <v>1</v>
+      </c>
+      <c r="AN390">
+        <v>0</v>
+      </c>
+      <c r="AO390">
+        <v>0</v>
+      </c>
+      <c r="AP390">
+        <v>0</v>
+      </c>
+      <c r="AQ390">
+        <v>2</v>
+      </c>
+      <c r="AR390">
+        <v>0</v>
+      </c>
+      <c r="AS390">
+        <v>0</v>
+      </c>
+      <c r="AT390">
+        <v>2</v>
+      </c>
+      <c r="AU390">
+        <v>0</v>
+      </c>
+      <c r="AV390">
+        <v>0</v>
+      </c>
+      <c r="AW390">
+        <v>0</v>
+      </c>
+      <c r="AX390">
+        <v>0</v>
+      </c>
+      <c r="AY390">
+        <v>0</v>
+      </c>
+      <c r="AZ390">
+        <v>0</v>
+      </c>
+      <c r="BA390">
+        <v>0</v>
+      </c>
+      <c r="BB390">
+        <v>0</v>
+      </c>
+      <c r="BC390">
+        <v>0</v>
+      </c>
+      <c r="BD390">
+        <v>1</v>
+      </c>
+      <c r="BE390">
+        <v>1</v>
+      </c>
+      <c r="BF390">
+        <v>0</v>
+      </c>
+      <c r="BG390">
+        <v>0</v>
+      </c>
+      <c r="BH390">
+        <v>0</v>
+      </c>
+      <c r="BI390">
+        <v>0</v>
+      </c>
+      <c r="BJ390">
+        <v>0</v>
+      </c>
+      <c r="BK390">
+        <v>0</v>
+      </c>
+      <c r="BL390">
+        <v>1</v>
+      </c>
+      <c r="BM390">
+        <v>0</v>
+      </c>
+      <c r="BN390">
+        <v>0</v>
+      </c>
+      <c r="BO390">
+        <v>0</v>
+      </c>
+      <c r="BP390">
+        <v>0</v>
+      </c>
+      <c r="BQ390">
+        <v>0</v>
+      </c>
+      <c r="BR390">
+        <v>0</v>
+      </c>
+      <c r="BS390">
+        <v>0</v>
+      </c>
+      <c r="BT390">
+        <v>1</v>
+      </c>
+      <c r="BU390">
+        <v>0</v>
+      </c>
+      <c r="BV390">
+        <v>0</v>
+      </c>
+      <c r="BW390">
+        <v>0</v>
+      </c>
+      <c r="BX390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A391" s="2">
+        <v>44466</v>
+      </c>
+      <c r="B391">
+        <v>8</v>
+      </c>
+      <c r="C391">
+        <v>0</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+      <c r="F391">
+        <v>0</v>
+      </c>
+      <c r="G391">
+        <v>0</v>
+      </c>
+      <c r="H391">
+        <v>0</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391">
+        <v>0</v>
+      </c>
+      <c r="L391">
+        <v>0</v>
+      </c>
+      <c r="M391">
+        <v>1</v>
+      </c>
+      <c r="N391">
+        <v>1</v>
+      </c>
+      <c r="O391">
+        <v>0</v>
+      </c>
+      <c r="P391">
+        <v>0</v>
+      </c>
+      <c r="Q391">
+        <v>0</v>
+      </c>
+      <c r="R391">
+        <v>0</v>
+      </c>
+      <c r="S391">
+        <v>1</v>
+      </c>
+      <c r="T391">
+        <v>1</v>
+      </c>
+      <c r="U391">
+        <v>1</v>
+      </c>
+      <c r="V391">
+        <v>1</v>
+      </c>
+      <c r="W391">
+        <v>6</v>
+      </c>
+      <c r="X391">
+        <v>6</v>
+      </c>
+      <c r="Y391">
+        <v>0</v>
+      </c>
+      <c r="Z391">
+        <v>0</v>
+      </c>
+      <c r="AA391">
+        <v>0</v>
+      </c>
+      <c r="AB391">
+        <v>0</v>
+      </c>
+      <c r="AC391">
+        <v>0</v>
+      </c>
+      <c r="AD391">
+        <v>0</v>
+      </c>
+      <c r="AE391">
+        <v>0</v>
+      </c>
+      <c r="AF391">
+        <v>1</v>
+      </c>
+      <c r="AG391">
+        <v>0</v>
+      </c>
+      <c r="AH391">
+        <v>2</v>
+      </c>
+      <c r="AI391">
+        <v>0</v>
+      </c>
+      <c r="AJ391">
+        <v>0</v>
+      </c>
+      <c r="AK391">
+        <v>0</v>
+      </c>
+      <c r="AL391">
+        <v>0</v>
+      </c>
+      <c r="AM391">
+        <v>0</v>
+      </c>
+      <c r="AN391">
+        <v>0</v>
+      </c>
+      <c r="AO391">
+        <v>0</v>
+      </c>
+      <c r="AP391">
+        <v>0</v>
+      </c>
+      <c r="AQ391">
+        <v>1</v>
+      </c>
+      <c r="AR391">
+        <v>0</v>
+      </c>
+      <c r="AS391">
+        <v>0</v>
+      </c>
+      <c r="AT391">
+        <v>0</v>
+      </c>
+      <c r="AU391">
+        <v>0</v>
+      </c>
+      <c r="AV391">
+        <v>0</v>
+      </c>
+      <c r="AW391">
+        <v>0</v>
+      </c>
+      <c r="AX391">
+        <v>0</v>
+      </c>
+      <c r="AY391">
+        <v>0</v>
+      </c>
+      <c r="AZ391">
+        <v>0</v>
+      </c>
+      <c r="BA391">
+        <v>0</v>
+      </c>
+      <c r="BB391">
+        <v>0</v>
+      </c>
+      <c r="BC391">
+        <v>0</v>
+      </c>
+      <c r="BD391">
+        <v>0</v>
+      </c>
+      <c r="BE391">
+        <v>0</v>
+      </c>
+      <c r="BF391">
+        <v>1</v>
+      </c>
+      <c r="BG391">
+        <v>0</v>
+      </c>
+      <c r="BH391">
+        <v>0</v>
+      </c>
+      <c r="BI391">
+        <v>0</v>
+      </c>
+      <c r="BJ391">
+        <v>0</v>
+      </c>
+      <c r="BK391">
+        <v>0</v>
+      </c>
+      <c r="BL391">
+        <v>1</v>
+      </c>
+      <c r="BM391">
+        <v>0</v>
+      </c>
+      <c r="BN391">
+        <v>0</v>
+      </c>
+      <c r="BO391">
+        <v>0</v>
+      </c>
+      <c r="BP391">
+        <v>0</v>
+      </c>
+      <c r="BQ391">
+        <v>0</v>
+      </c>
+      <c r="BR391">
+        <v>0</v>
+      </c>
+      <c r="BS391">
+        <v>0</v>
+      </c>
+      <c r="BT391">
+        <v>0</v>
+      </c>
+      <c r="BU391">
+        <v>0</v>
+      </c>
+      <c r="BV391">
+        <v>0</v>
+      </c>
+      <c r="BW391">
+        <v>0</v>
+      </c>
+      <c r="BX391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A392" s="2">
+        <v>44467</v>
+      </c>
+      <c r="B392">
+        <v>4</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+      <c r="D392">
+        <v>0</v>
+      </c>
+      <c r="E392">
+        <v>1</v>
+      </c>
+      <c r="F392">
+        <v>0</v>
+      </c>
+      <c r="G392">
+        <v>0</v>
+      </c>
+      <c r="H392">
+        <v>0</v>
+      </c>
+      <c r="I392">
+        <v>0</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+      <c r="K392">
+        <v>1</v>
+      </c>
+      <c r="L392">
+        <v>1</v>
+      </c>
+      <c r="M392">
+        <v>0</v>
+      </c>
+      <c r="N392">
+        <v>1</v>
+      </c>
+      <c r="O392">
+        <v>0</v>
+      </c>
+      <c r="P392">
+        <v>0</v>
+      </c>
+      <c r="Q392">
+        <v>0</v>
+      </c>
+      <c r="R392">
+        <v>0</v>
+      </c>
+      <c r="S392">
+        <v>1</v>
+      </c>
+      <c r="T392">
+        <v>0</v>
+      </c>
+      <c r="U392">
+        <v>2</v>
+      </c>
+      <c r="V392">
+        <v>0</v>
+      </c>
+      <c r="W392">
+        <v>1</v>
+      </c>
+      <c r="X392">
+        <v>2</v>
+      </c>
+      <c r="Y392">
+        <v>0</v>
+      </c>
+      <c r="Z392">
+        <v>0</v>
+      </c>
+      <c r="AA392">
+        <v>0</v>
+      </c>
+      <c r="AB392">
+        <v>0</v>
+      </c>
+      <c r="AC392">
+        <v>0</v>
+      </c>
+      <c r="AD392">
+        <v>0</v>
+      </c>
+      <c r="AE392">
+        <v>1</v>
+      </c>
+      <c r="AF392">
+        <v>0</v>
+      </c>
+      <c r="AG392">
+        <v>0</v>
+      </c>
+      <c r="AH392">
+        <v>3</v>
+      </c>
+      <c r="AI392">
+        <v>0</v>
+      </c>
+      <c r="AJ392">
+        <v>0</v>
+      </c>
+      <c r="AK392">
+        <v>0</v>
+      </c>
+      <c r="AL392">
+        <v>0</v>
+      </c>
+      <c r="AM392">
+        <v>0</v>
+      </c>
+      <c r="AN392">
+        <v>1</v>
+      </c>
+      <c r="AO392">
+        <v>0</v>
+      </c>
+      <c r="AP392">
+        <v>0</v>
+      </c>
+      <c r="AQ392">
+        <v>1</v>
+      </c>
+      <c r="AR392">
+        <v>0</v>
+      </c>
+      <c r="AS392">
+        <v>0</v>
+      </c>
+      <c r="AT392">
+        <v>0</v>
+      </c>
+      <c r="AU392">
+        <v>0</v>
+      </c>
+      <c r="AV392">
+        <v>0</v>
+      </c>
+      <c r="AW392">
+        <v>0</v>
+      </c>
+      <c r="AX392">
+        <v>0</v>
+      </c>
+      <c r="AY392">
+        <v>0</v>
+      </c>
+      <c r="AZ392">
+        <v>0</v>
+      </c>
+      <c r="BA392">
+        <v>0</v>
+      </c>
+      <c r="BB392">
+        <v>0</v>
+      </c>
+      <c r="BC392">
+        <v>0</v>
+      </c>
+      <c r="BD392">
+        <v>1</v>
+      </c>
+      <c r="BE392">
+        <v>0</v>
+      </c>
+      <c r="BF392">
+        <v>0</v>
+      </c>
+      <c r="BG392">
+        <v>0</v>
+      </c>
+      <c r="BH392">
+        <v>1</v>
+      </c>
+      <c r="BI392">
+        <v>1</v>
+      </c>
+      <c r="BJ392">
+        <v>0</v>
+      </c>
+      <c r="BK392">
+        <v>0</v>
+      </c>
+      <c r="BL392">
+        <v>0</v>
+      </c>
+      <c r="BM392">
+        <v>0</v>
+      </c>
+      <c r="BN392">
+        <v>0</v>
+      </c>
+      <c r="BO392">
+        <v>2</v>
+      </c>
+      <c r="BP392">
+        <v>0</v>
+      </c>
+      <c r="BQ392">
+        <v>0</v>
+      </c>
+      <c r="BR392">
+        <v>0</v>
+      </c>
+      <c r="BS392">
+        <v>1</v>
+      </c>
+      <c r="BT392">
+        <v>0</v>
+      </c>
+      <c r="BU392">
+        <v>0</v>
+      </c>
+      <c r="BV392">
+        <v>0</v>
+      </c>
+      <c r="BW392">
+        <v>0</v>
+      </c>
+      <c r="BX392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A393" s="2">
+        <v>44468</v>
+      </c>
+      <c r="B393">
+        <v>4</v>
+      </c>
+      <c r="C393">
+        <v>0</v>
+      </c>
+      <c r="D393">
+        <v>0</v>
+      </c>
+      <c r="E393">
+        <v>0</v>
+      </c>
+      <c r="F393">
+        <v>0</v>
+      </c>
+      <c r="G393">
+        <v>0</v>
+      </c>
+      <c r="H393">
+        <v>1</v>
+      </c>
+      <c r="I393">
+        <v>0</v>
+      </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
+      <c r="K393">
+        <v>0</v>
+      </c>
+      <c r="L393">
+        <v>0</v>
+      </c>
+      <c r="M393">
+        <v>2</v>
+      </c>
+      <c r="N393">
+        <v>0</v>
+      </c>
+      <c r="O393">
+        <v>0</v>
+      </c>
+      <c r="P393">
+        <v>0</v>
+      </c>
+      <c r="Q393">
+        <v>0</v>
+      </c>
+      <c r="R393">
+        <v>0</v>
+      </c>
+      <c r="S393">
+        <v>0</v>
+      </c>
+      <c r="T393">
+        <v>0</v>
+      </c>
+      <c r="U393">
+        <v>2</v>
+      </c>
+      <c r="V393">
+        <v>0</v>
+      </c>
+      <c r="W393">
+        <v>1</v>
+      </c>
+      <c r="X393">
+        <v>4</v>
+      </c>
+      <c r="Y393">
+        <v>1</v>
+      </c>
+      <c r="Z393">
+        <v>0</v>
+      </c>
+      <c r="AA393">
+        <v>0</v>
+      </c>
+      <c r="AB393">
+        <v>1</v>
+      </c>
+      <c r="AC393">
+        <v>0</v>
+      </c>
+      <c r="AD393">
+        <v>0</v>
+      </c>
+      <c r="AE393">
+        <v>0</v>
+      </c>
+      <c r="AF393">
+        <v>1</v>
+      </c>
+      <c r="AG393">
+        <v>0</v>
+      </c>
+      <c r="AH393">
+        <v>1</v>
+      </c>
+      <c r="AI393">
+        <v>1</v>
+      </c>
+      <c r="AJ393">
+        <v>0</v>
+      </c>
+      <c r="AK393">
+        <v>0</v>
+      </c>
+      <c r="AL393">
+        <v>0</v>
+      </c>
+      <c r="AM393">
+        <v>0</v>
+      </c>
+      <c r="AN393">
+        <v>0</v>
+      </c>
+      <c r="AO393">
+        <v>0</v>
+      </c>
+      <c r="AP393">
+        <v>0</v>
+      </c>
+      <c r="AQ393">
+        <v>0</v>
+      </c>
+      <c r="AR393">
+        <v>0</v>
+      </c>
+      <c r="AS393">
+        <v>0</v>
+      </c>
+      <c r="AT393">
+        <v>0</v>
+      </c>
+      <c r="AU393">
+        <v>0</v>
+      </c>
+      <c r="AV393">
+        <v>0</v>
+      </c>
+      <c r="AW393">
+        <v>0</v>
+      </c>
+      <c r="AX393">
+        <v>1</v>
+      </c>
+      <c r="AY393">
+        <v>0</v>
+      </c>
+      <c r="AZ393">
+        <v>0</v>
+      </c>
+      <c r="BA393">
+        <v>0</v>
+      </c>
+      <c r="BB393">
+        <v>0</v>
+      </c>
+      <c r="BC393">
+        <v>0</v>
+      </c>
+      <c r="BD393">
+        <v>0</v>
+      </c>
+      <c r="BE393">
+        <v>0</v>
+      </c>
+      <c r="BF393">
+        <v>0</v>
+      </c>
+      <c r="BG393">
+        <v>1</v>
+      </c>
+      <c r="BH393">
+        <v>0</v>
+      </c>
+      <c r="BI393">
+        <v>0</v>
+      </c>
+      <c r="BJ393">
+        <v>1</v>
+      </c>
+      <c r="BK393">
+        <v>1</v>
+      </c>
+      <c r="BL393">
+        <v>0</v>
+      </c>
+      <c r="BM393">
+        <v>0</v>
+      </c>
+      <c r="BN393">
+        <v>0</v>
+      </c>
+      <c r="BO393">
+        <v>0</v>
+      </c>
+      <c r="BP393">
+        <v>0</v>
+      </c>
+      <c r="BQ393">
+        <v>0</v>
+      </c>
+      <c r="BR393">
+        <v>0</v>
+      </c>
+      <c r="BS393">
+        <v>0</v>
+      </c>
+      <c r="BT393">
+        <v>0</v>
+      </c>
+      <c r="BU393">
+        <v>0</v>
+      </c>
+      <c r="BV393">
+        <v>0</v>
+      </c>
+      <c r="BW393">
+        <v>0</v>
+      </c>
+      <c r="BX393">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
